--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho01\OneDrive\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{F0DE1C0D-D15D-418F-8BD1-0C81C364A7A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2FA3EBA6-7C1B-47B0-800A-01BF2D6FC935}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>左上</t>
     <rPh sb="0" eb="2">
@@ -159,11 +165,35 @@
     <t>goInside</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>I2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goInsideTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gotInsideTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,14 +245,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M59" sqref="J56:M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,24 +553,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -568,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
@@ -654,7 +696,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
@@ -945,7 +987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>19</v>
@@ -1195,7 +1237,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
@@ -1404,7 +1446,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>22</v>
@@ -1531,7 +1573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>25</v>
@@ -1904,7 +1946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>24</v>
@@ -2195,7 +2237,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>23</v>
@@ -2363,13 +2405,721 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="C55" s="4">
+        <v>38</v>
+      </c>
+      <c r="D55" s="4">
+        <v>54</v>
+      </c>
+      <c r="E55" s="4">
+        <v>238</v>
+      </c>
+      <c r="F55" s="4">
+        <v>104</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" ref="G55:G75" si="18">E55-C55</f>
+        <v>200</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" ref="H55:H75" si="19">F55-D55</f>
+        <v>50</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" ref="J55:J75" si="20">C55</f>
+        <v>38</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" ref="K55:K75" si="21">D55</f>
+        <v>54</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" ref="L55:L75" si="22">G55</f>
+        <v>200</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" ref="M55:M75" si="23">H55</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>304</v>
+      </c>
+      <c r="D56">
+        <v>318</v>
+      </c>
+      <c r="E56">
+        <v>714</v>
+      </c>
+      <c r="F56">
+        <v>399</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="18"/>
+        <v>410</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="20"/>
+        <v>304</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="21"/>
+        <v>318</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="22"/>
+        <v>410</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="23"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>304</v>
+      </c>
+      <c r="D57">
+        <v>163</v>
+      </c>
+      <c r="E57">
+        <v>716</v>
+      </c>
+      <c r="F57">
+        <v>244</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="18"/>
+        <v>412</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="20"/>
+        <v>304</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="21"/>
+        <v>163</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="22"/>
+        <v>412</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="23"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>304</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>713</v>
+      </c>
+      <c r="F58">
+        <v>87</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="18"/>
+        <v>409</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="19"/>
+        <v>77</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="20"/>
+        <v>304</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="22"/>
+        <v>409</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>160</v>
+      </c>
+      <c r="D59">
+        <v>474</v>
+      </c>
+      <c r="E59">
+        <v>301</v>
+      </c>
+      <c r="F59">
+        <v>553</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="18"/>
+        <v>141</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="21"/>
+        <v>474</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="22"/>
+        <v>141</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="23"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>26</v>
+      </c>
+      <c r="E61">
+        <v>266</v>
+      </c>
+      <c r="F61">
+        <v>78</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="18"/>
+        <v>216</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="21"/>
+        <v>26</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="22"/>
+        <v>216</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>623</v>
+      </c>
+      <c r="D62">
+        <v>179</v>
+      </c>
+      <c r="E62">
+        <v>717</v>
+      </c>
+      <c r="F62">
+        <v>362</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="19"/>
+        <v>183</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="20"/>
+        <v>623</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="21"/>
+        <v>179</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="22"/>
+        <v>94</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="23"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>240</v>
+      </c>
+      <c r="F64">
+        <v>68</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="18"/>
+        <v>215</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="22"/>
+        <v>215</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>757</v>
+      </c>
+      <c r="D65">
+        <v>179</v>
+      </c>
+      <c r="E65">
+        <v>848</v>
+      </c>
+      <c r="F65">
+        <v>367</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="18"/>
+        <v>91</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="20"/>
+        <v>757</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="21"/>
+        <v>179</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="23"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>891</v>
+      </c>
+      <c r="D66">
+        <v>185</v>
+      </c>
+      <c r="E66">
+        <v>989</v>
+      </c>
+      <c r="F66">
+        <v>368</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="19"/>
+        <v>183</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="20"/>
+        <v>891</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="21"/>
+        <v>185</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="22"/>
+        <v>98</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="23"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>265</v>
+      </c>
+      <c r="F68">
+        <v>78</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="18"/>
+        <v>213</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="20"/>
+        <v>52</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="22"/>
+        <v>213</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>364</v>
+      </c>
+      <c r="D69">
+        <v>180</v>
+      </c>
+      <c r="E69">
+        <v>452</v>
+      </c>
+      <c r="F69">
+        <v>369</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="20"/>
+        <v>364</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="22"/>
+        <v>88</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>487</v>
+      </c>
+      <c r="D70">
+        <v>180</v>
+      </c>
+      <c r="E70">
+        <v>588</v>
+      </c>
+      <c r="F70">
+        <v>369</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="18"/>
+        <v>101</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="20"/>
+        <v>487</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="22"/>
+        <v>101</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>625</v>
+      </c>
+      <c r="D71">
+        <v>180</v>
+      </c>
+      <c r="E71">
+        <v>721</v>
+      </c>
+      <c r="F71">
+        <v>369</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="20"/>
+        <v>625</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>757</v>
+      </c>
+      <c r="D72">
+        <v>180</v>
+      </c>
+      <c r="E72">
+        <v>847</v>
+      </c>
+      <c r="F72">
+        <v>369</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="20"/>
+        <v>757</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>891</v>
+      </c>
+      <c r="D73">
+        <v>180</v>
+      </c>
+      <c r="E73">
+        <v>990</v>
+      </c>
+      <c r="F73">
+        <v>369</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="18"/>
+        <v>99</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="20"/>
+        <v>891</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="22"/>
+        <v>99</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>24</v>
+      </c>
+      <c r="E75">
+        <v>267</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="18"/>
+        <v>215</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="20"/>
+        <v>52</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="22"/>
+        <v>215</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="23"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2381,6 +3131,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho01\OneDrive\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{F0DE1C0D-D15D-418F-8BD1-0C81C364A7A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2FA3EBA6-7C1B-47B0-800A-01BF2D6FC935}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE64C3-69E5-45CB-AFE2-CCA6D3226E25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>左上</t>
     <rPh sb="0" eb="2">
@@ -187,6 +187,110 @@
   </si>
   <si>
     <t>I2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goInsideTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I5-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I8-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-1-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-3-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goInideTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I8-3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -211,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +325,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M59" sqref="J56:M59"/>
+    <sheetView tabSelected="1" topLeftCell="E72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,28 +1094,28 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D15">
         <v>32</v>
       </c>
       <c r="E15">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="F15">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G53" si="12">E15-C15</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H15">
         <f t="shared" ref="H15:H53" si="13">F15-D15</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:J53" si="14">C15</f>
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15:K53" si="15">D15</f>
@@ -1025,11 +1123,11 @@
       </c>
       <c r="L15">
         <f t="shared" ref="L15:L53" si="16">G15</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M53" si="17">H15</f>
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1037,40 +1135,40 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E16">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F16">
         <v>242</v>
       </c>
       <c r="G16">
         <f t="shared" si="12"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" si="13"/>
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J16">
         <f t="shared" si="14"/>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K16">
         <f t="shared" si="15"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L16">
         <f t="shared" si="16"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="M16">
         <f t="shared" si="17"/>
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1078,40 +1176,40 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E17">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F17">
         <v>243</v>
       </c>
       <c r="G17">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H17">
         <f t="shared" si="13"/>
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J17">
         <f t="shared" si="14"/>
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K17">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L17">
         <f t="shared" si="16"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M17">
         <f t="shared" si="17"/>
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1119,40 +1217,40 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E18">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F18">
         <v>254</v>
       </c>
       <c r="G18">
         <f t="shared" si="12"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <f t="shared" si="13"/>
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="J18">
         <f t="shared" si="14"/>
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="K18">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L18">
         <f t="shared" si="16"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="M18">
         <f t="shared" si="17"/>
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1160,40 +1258,40 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>668</v>
       </c>
       <c r="F19">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="G19">
         <f t="shared" si="12"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H19">
         <f t="shared" si="13"/>
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="J19">
         <f t="shared" si="14"/>
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="K19">
         <f t="shared" si="15"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L19">
         <f t="shared" si="16"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M19">
         <f t="shared" si="17"/>
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -1201,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -1210,19 +1308,19 @@
         <v>949</v>
       </c>
       <c r="F20">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="G20">
         <f t="shared" si="12"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H20">
         <f t="shared" si="13"/>
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="J20">
         <f t="shared" si="14"/>
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="K20">
         <f t="shared" si="15"/>
@@ -1230,11 +1328,11 @@
       </c>
       <c r="L20">
         <f t="shared" si="16"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="M20">
         <f t="shared" si="17"/>
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1290,7 +1388,7 @@
         <v>239</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>317</v>
@@ -1304,7 +1402,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="13"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J23">
         <f t="shared" si="14"/>
@@ -1312,7 +1410,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="15"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L23">
         <f t="shared" si="16"/>
@@ -1320,7 +1418,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="17"/>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -1328,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>438</v>
@@ -1341,27 +1439,27 @@
       </c>
       <c r="G24">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24">
         <f t="shared" si="13"/>
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J24">
         <f t="shared" si="14"/>
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="K24">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L24">
         <f t="shared" si="16"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M24">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -1372,7 +1470,7 @@
         <v>475</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>557</v>
@@ -1386,7 +1484,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="13"/>
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J25">
         <f t="shared" si="14"/>
@@ -1394,7 +1492,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L25">
         <f t="shared" si="16"/>
@@ -1402,7 +1500,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="17"/>
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -1413,7 +1511,7 @@
         <v>594</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>673</v>
@@ -1427,7 +1525,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="13"/>
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J26">
         <f t="shared" si="14"/>
@@ -1435,7 +1533,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L26">
         <f t="shared" si="16"/>
@@ -1443,7 +1541,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="17"/>
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1496,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D29">
         <v>478</v>
@@ -1509,7 +1607,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="12"/>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H29">
         <f t="shared" si="13"/>
@@ -1517,7 +1615,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="14"/>
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K29">
         <f t="shared" si="15"/>
@@ -1525,7 +1623,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="16"/>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M29">
         <f t="shared" si="17"/>
@@ -1537,20 +1635,20 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="D30">
         <v>568</v>
       </c>
       <c r="E30">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="F30">
         <v>646</v>
       </c>
       <c r="G30">
         <f t="shared" si="12"/>
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="H30">
         <f t="shared" si="13"/>
@@ -1558,7 +1656,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="14"/>
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="K30">
         <f t="shared" si="15"/>
@@ -1566,7 +1664,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="16"/>
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="M30">
         <f t="shared" si="17"/>
@@ -2417,37 +2515,37 @@
         <v>38</v>
       </c>
       <c r="D55" s="4">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E55" s="4">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F55" s="4">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" ref="G55:G75" si="18">E55-C55</f>
-        <v>200</v>
+        <f t="shared" ref="G55:G81" si="18">E55-C55</f>
+        <v>210</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" ref="H55:H75" si="19">F55-D55</f>
-        <v>50</v>
+        <f t="shared" ref="H55:H81" si="19">F55-D55</f>
+        <v>52</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" ref="J55:J75" si="20">C55</f>
+        <f t="shared" ref="J55:J81" si="20">C55</f>
         <v>38</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" ref="K55:K75" si="21">D55</f>
-        <v>54</v>
+        <f t="shared" ref="K55:K81" si="21">D55</f>
+        <v>21</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" ref="L55:L75" si="22">G55</f>
-        <v>200</v>
+        <f t="shared" ref="L55:L81" si="22">G55</f>
+        <v>210</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" ref="M55:M75" si="23">H55</f>
-        <v>50</v>
+        <f t="shared" ref="M55:M81" si="23">H55</f>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
@@ -2458,13 +2556,13 @@
         <v>304</v>
       </c>
       <c r="D56">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E56">
         <v>714</v>
       </c>
       <c r="F56">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G56">
         <f t="shared" si="18"/>
@@ -2480,7 +2578,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="21"/>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L56">
         <f t="shared" si="22"/>
@@ -2660,468 +2758,2060 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B62">
-        <v>1</v>
+      <c r="A62" s="2"/>
+      <c r="B62" t="s">
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D62">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="E62">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="F62">
-        <v>362</v>
+        <v>94</v>
       </c>
       <c r="G62">
         <f t="shared" si="18"/>
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="H62">
         <f t="shared" si="19"/>
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <f t="shared" si="20"/>
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="K62">
         <f t="shared" si="21"/>
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="L62">
         <f t="shared" si="22"/>
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="M62">
         <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>623</v>
+      </c>
+      <c r="D63">
+        <v>179</v>
+      </c>
+      <c r="E63">
+        <v>717</v>
+      </c>
+      <c r="F63">
+        <v>362</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="19"/>
         <v>183</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="J63">
+        <f t="shared" si="20"/>
+        <v>623</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="21"/>
+        <v>179</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="22"/>
+        <v>94</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="23"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>32</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>36</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>25</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>13</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>240</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>68</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <f t="shared" si="18"/>
         <v>215</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="J64">
+      <c r="J65">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="K64">
+      <c r="K65">
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="L64">
+      <c r="L65">
         <f t="shared" si="22"/>
         <v>215</v>
       </c>
-      <c r="M64">
+      <c r="M65">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B65">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>630</v>
+      </c>
+      <c r="D66">
+        <v>42</v>
+      </c>
+      <c r="E66">
+        <v>807</v>
+      </c>
+      <c r="F66">
+        <v>96</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="18"/>
+        <v>177</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="20"/>
+        <v>630</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="21"/>
+        <v>42</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="22"/>
+        <v>177</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>633</v>
+      </c>
+      <c r="D67">
+        <v>407</v>
+      </c>
+      <c r="E67">
+        <v>807</v>
+      </c>
+      <c r="F67">
+        <v>463</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="18"/>
+        <v>174</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="20"/>
+        <v>633</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="21"/>
+        <v>407</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="22"/>
+        <v>174</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C65">
+      <c r="C68">
         <v>757</v>
       </c>
-      <c r="D65">
+      <c r="D68">
         <v>179</v>
       </c>
-      <c r="E65">
+      <c r="E68">
         <v>848</v>
       </c>
-      <c r="F65">
+      <c r="F68">
         <v>367</v>
       </c>
-      <c r="G65">
+      <c r="G68">
         <f t="shared" si="18"/>
         <v>91</v>
       </c>
-      <c r="H65">
+      <c r="H68">
         <f t="shared" si="19"/>
         <v>188</v>
       </c>
-      <c r="J65">
+      <c r="J68">
         <f t="shared" si="20"/>
         <v>757</v>
       </c>
-      <c r="K65">
+      <c r="K68">
         <f t="shared" si="21"/>
         <v>179</v>
       </c>
-      <c r="L65">
+      <c r="L68">
         <f t="shared" si="22"/>
         <v>91</v>
       </c>
-      <c r="M65">
+      <c r="M68">
         <f t="shared" si="23"/>
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B66">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B69">
         <v>2</v>
       </c>
-      <c r="C66">
+      <c r="C69">
         <v>891</v>
       </c>
-      <c r="D66">
+      <c r="D69">
         <v>185</v>
       </c>
-      <c r="E66">
+      <c r="E69">
         <v>989</v>
       </c>
-      <c r="F66">
+      <c r="F69">
         <v>368</v>
       </c>
-      <c r="G66">
+      <c r="G69">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="H66">
+      <c r="H69">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="J66">
+      <c r="J69">
         <f t="shared" si="20"/>
         <v>891</v>
       </c>
-      <c r="K66">
+      <c r="K69">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="L66">
+      <c r="L69">
         <f t="shared" si="22"/>
         <v>98</v>
       </c>
-      <c r="M66">
+      <c r="M69">
         <f t="shared" si="23"/>
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>34</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>33</v>
       </c>
-      <c r="C68">
+      <c r="C71">
         <v>52</v>
       </c>
-      <c r="D68">
+      <c r="D71">
         <v>27</v>
       </c>
-      <c r="E68">
+      <c r="E71">
         <v>265</v>
       </c>
-      <c r="F68">
+      <c r="F71">
         <v>78</v>
       </c>
-      <c r="G68">
+      <c r="G71">
         <f t="shared" si="18"/>
         <v>213</v>
       </c>
-      <c r="H68">
+      <c r="H71">
         <f t="shared" si="19"/>
         <v>51</v>
       </c>
-      <c r="J68">
+      <c r="J71">
         <f t="shared" si="20"/>
         <v>52</v>
       </c>
-      <c r="K68">
+      <c r="K71">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
-      <c r="L68">
+      <c r="L71">
         <f t="shared" si="22"/>
         <v>213</v>
       </c>
-      <c r="M68">
+      <c r="M71">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B69">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>631</v>
+      </c>
+      <c r="D72">
+        <v>43</v>
+      </c>
+      <c r="E72">
+        <v>805</v>
+      </c>
+      <c r="F72">
+        <v>98</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="18"/>
+        <v>174</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="20"/>
+        <v>631</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="21"/>
+        <v>43</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="22"/>
+        <v>174</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>634</v>
+      </c>
+      <c r="D73">
+        <v>408</v>
+      </c>
+      <c r="E73">
+        <v>807</v>
+      </c>
+      <c r="F73">
+        <v>464</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="18"/>
+        <v>173</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="20"/>
+        <v>634</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="21"/>
+        <v>408</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="22"/>
+        <v>173</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B74">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="C74">
         <v>364</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <v>180</v>
       </c>
-      <c r="E69">
+      <c r="E74">
         <v>452</v>
       </c>
-      <c r="F69">
+      <c r="F74">
         <v>369</v>
       </c>
-      <c r="G69">
+      <c r="G74">
         <f t="shared" si="18"/>
         <v>88</v>
       </c>
-      <c r="H69">
+      <c r="H74">
         <f t="shared" si="19"/>
         <v>189</v>
       </c>
-      <c r="J69">
+      <c r="J74">
         <f t="shared" si="20"/>
         <v>364</v>
       </c>
-      <c r="K69">
+      <c r="K74">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="L69">
+      <c r="L74">
         <f t="shared" si="22"/>
         <v>88</v>
       </c>
-      <c r="M69">
+      <c r="M74">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B70">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B75">
         <v>2</v>
       </c>
-      <c r="C70">
+      <c r="C75">
         <v>487</v>
       </c>
-      <c r="D70">
+      <c r="D75">
         <v>180</v>
       </c>
-      <c r="E70">
+      <c r="E75">
         <v>588</v>
       </c>
-      <c r="F70">
+      <c r="F75">
         <v>369</v>
       </c>
-      <c r="G70">
+      <c r="G75">
         <f t="shared" si="18"/>
         <v>101</v>
       </c>
-      <c r="H70">
+      <c r="H75">
         <f t="shared" si="19"/>
         <v>189</v>
       </c>
-      <c r="J70">
+      <c r="J75">
         <f t="shared" si="20"/>
         <v>487</v>
       </c>
-      <c r="K70">
+      <c r="K75">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="L70">
+      <c r="L75">
         <f t="shared" si="22"/>
         <v>101</v>
       </c>
-      <c r="M70">
+      <c r="M75">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B71">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="C71">
+      <c r="C76">
         <v>625</v>
       </c>
-      <c r="D71">
+      <c r="D76">
         <v>180</v>
       </c>
-      <c r="E71">
+      <c r="E76">
         <v>721</v>
       </c>
-      <c r="F71">
+      <c r="F76">
         <v>369</v>
       </c>
-      <c r="G71">
+      <c r="G76">
         <f t="shared" si="18"/>
         <v>96</v>
       </c>
-      <c r="H71">
+      <c r="H76">
         <f t="shared" si="19"/>
         <v>189</v>
       </c>
-      <c r="J71">
+      <c r="J76">
         <f t="shared" si="20"/>
         <v>625</v>
       </c>
-      <c r="K71">
+      <c r="K76">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="L71">
+      <c r="L76">
         <f t="shared" si="22"/>
         <v>96</v>
       </c>
-      <c r="M71">
+      <c r="M76">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B72">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B77">
         <v>4</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>757</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>180</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <v>847</v>
       </c>
-      <c r="F72">
+      <c r="F77">
         <v>369</v>
       </c>
-      <c r="G72">
+      <c r="G77">
         <f t="shared" si="18"/>
         <v>90</v>
       </c>
-      <c r="H72">
+      <c r="H77">
         <f t="shared" si="19"/>
         <v>189</v>
       </c>
-      <c r="J72">
+      <c r="J77">
         <f t="shared" si="20"/>
         <v>757</v>
       </c>
-      <c r="K72">
+      <c r="K77">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="L72">
+      <c r="L77">
         <f t="shared" si="22"/>
         <v>90</v>
       </c>
-      <c r="M72">
+      <c r="M77">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B73">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B78">
         <v>5</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>891</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>180</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>990</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>369</v>
       </c>
-      <c r="G73">
+      <c r="G78">
         <f t="shared" si="18"/>
         <v>99</v>
       </c>
-      <c r="H73">
+      <c r="H78">
         <f t="shared" si="19"/>
         <v>189</v>
       </c>
-      <c r="J73">
+      <c r="J78">
         <f t="shared" si="20"/>
         <v>891</v>
       </c>
-      <c r="K73">
+      <c r="K78">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="L73">
+      <c r="L78">
         <f t="shared" si="22"/>
         <v>99</v>
       </c>
-      <c r="M73">
+      <c r="M78">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>37</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
         <v>33</v>
       </c>
-      <c r="C75">
+      <c r="C80">
         <v>52</v>
       </c>
-      <c r="D75">
+      <c r="D80">
         <v>24</v>
       </c>
-      <c r="E75">
+      <c r="E80">
         <v>267</v>
       </c>
-      <c r="F75">
+      <c r="F80">
         <v>80</v>
       </c>
-      <c r="G75">
+      <c r="G80">
         <f t="shared" si="18"/>
         <v>215</v>
       </c>
-      <c r="H75">
+      <c r="H80">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J75">
+      <c r="J80">
         <f t="shared" si="20"/>
         <v>52</v>
       </c>
-      <c r="K75">
+      <c r="K80">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
-      <c r="L75">
+      <c r="L80">
         <f t="shared" si="22"/>
         <v>215</v>
       </c>
-      <c r="M75">
+      <c r="M80">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>634</v>
+      </c>
+      <c r="D81">
+        <v>408</v>
+      </c>
+      <c r="E81">
+        <v>811</v>
+      </c>
+      <c r="F81">
+        <v>459</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="18"/>
+        <v>177</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="20"/>
+        <v>634</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="21"/>
+        <v>408</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="22"/>
+        <v>177</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83">
+        <v>54</v>
+      </c>
+      <c r="D83">
+        <v>34</v>
+      </c>
+      <c r="E83">
+        <v>279</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G82:G122" si="24">E83-C83</f>
+        <v>225</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H82:H122" si="25">F83-D83</f>
+        <v>56</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J82:J122" si="26">C83</f>
+        <v>54</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K82:K122" si="27">D83</f>
+        <v>34</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ref="L82:L122" si="28">G83</f>
+        <v>225</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ref="M82:M122" si="29">H83</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>633</v>
+      </c>
+      <c r="D84">
+        <v>31</v>
+      </c>
+      <c r="E84">
+        <v>808</v>
+      </c>
+      <c r="F84">
+        <v>84</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="24"/>
+        <v>175</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="25"/>
+        <v>53</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="26"/>
+        <v>633</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="28"/>
+        <v>175</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>839</v>
+      </c>
+      <c r="D85">
+        <v>295</v>
+      </c>
+      <c r="E85">
+        <v>915</v>
+      </c>
+      <c r="F85">
+        <v>464</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="25"/>
+        <v>169</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="26"/>
+        <v>839</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="27"/>
+        <v>295</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="28"/>
+        <v>76</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="29"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>931</v>
+      </c>
+      <c r="D86">
+        <v>126</v>
+      </c>
+      <c r="E86">
+        <v>1007</v>
+      </c>
+      <c r="F86">
+        <v>481</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="25"/>
+        <v>355</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="26"/>
+        <v>931</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="27"/>
+        <v>126</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="28"/>
+        <v>76</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="29"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88">
+        <v>52</v>
+      </c>
+      <c r="D88">
+        <v>38</v>
+      </c>
+      <c r="E88">
+        <v>277</v>
+      </c>
+      <c r="F88">
+        <v>94</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="24"/>
+        <v>225</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="25"/>
+        <v>56</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="27"/>
+        <v>38</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="28"/>
+        <v>225</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="29"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89">
+        <v>628</v>
+      </c>
+      <c r="D89">
+        <v>38</v>
+      </c>
+      <c r="E89">
+        <v>801</v>
+      </c>
+      <c r="F89">
+        <v>92</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="24"/>
+        <v>173</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="26"/>
+        <v>628</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="27"/>
+        <v>38</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="28"/>
+        <v>173</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>632</v>
+      </c>
+      <c r="D90">
+        <v>509</v>
+      </c>
+      <c r="E90">
+        <v>804</v>
+      </c>
+      <c r="F90">
+        <v>562</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="24"/>
+        <v>172</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="25"/>
+        <v>53</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="26"/>
+        <v>632</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="27"/>
+        <v>509</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="28"/>
+        <v>172</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>373</v>
+      </c>
+      <c r="D91">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <v>460</v>
+      </c>
+      <c r="F91">
+        <v>228</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="24"/>
+        <v>87</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="25"/>
+        <v>137</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="26"/>
+        <v>373</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="27"/>
+        <v>91</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="28"/>
+        <v>87</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="29"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>375</v>
+      </c>
+      <c r="D92">
+        <v>274</v>
+      </c>
+      <c r="E92">
+        <v>456</v>
+      </c>
+      <c r="F92">
+        <v>421</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="24"/>
+        <v>81</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="25"/>
+        <v>147</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="26"/>
+        <v>375</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="27"/>
+        <v>274</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="28"/>
+        <v>81</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="29"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>921</v>
+      </c>
+      <c r="D93">
+        <v>189</v>
+      </c>
+      <c r="E93">
+        <v>1011</v>
+      </c>
+      <c r="F93">
+        <v>353</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="26"/>
+        <v>921</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="27"/>
+        <v>189</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="28"/>
+        <v>90</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="29"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95">
+        <v>54</v>
+      </c>
+      <c r="D95">
+        <v>44</v>
+      </c>
+      <c r="E95">
+        <v>280</v>
+      </c>
+      <c r="F95">
+        <v>99</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="24"/>
+        <v>226</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="28"/>
+        <v>226</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="29"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96">
+        <v>628</v>
+      </c>
+      <c r="D96">
+        <v>38</v>
+      </c>
+      <c r="E96">
+        <v>804</v>
+      </c>
+      <c r="F96">
+        <v>92</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="24"/>
+        <v>176</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="26"/>
+        <v>628</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="27"/>
+        <v>38</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="28"/>
+        <v>176</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97">
+        <v>634</v>
+      </c>
+      <c r="D97">
+        <v>511</v>
+      </c>
+      <c r="E97">
+        <v>806</v>
+      </c>
+      <c r="F97">
+        <v>564</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="24"/>
+        <v>172</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="25"/>
+        <v>53</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="26"/>
+        <v>634</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="27"/>
+        <v>511</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="28"/>
+        <v>172</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>628</v>
+      </c>
+      <c r="D98">
+        <v>275</v>
+      </c>
+      <c r="E98">
+        <v>723</v>
+      </c>
+      <c r="F98">
+        <v>394</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="24"/>
+        <v>95</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="25"/>
+        <v>119</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="26"/>
+        <v>628</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="27"/>
+        <v>275</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="28"/>
+        <v>95</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>835</v>
+      </c>
+      <c r="D99">
+        <v>276</v>
+      </c>
+      <c r="E99">
+        <v>940</v>
+      </c>
+      <c r="F99">
+        <v>407</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="24"/>
+        <v>105</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="25"/>
+        <v>131</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="26"/>
+        <v>835</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="27"/>
+        <v>276</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="28"/>
+        <v>105</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="29"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101">
+        <v>52</v>
+      </c>
+      <c r="D101">
+        <v>39</v>
+      </c>
+      <c r="E101">
+        <v>279</v>
+      </c>
+      <c r="F101">
+        <v>96</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="24"/>
+        <v>227</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="27"/>
+        <v>39</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="28"/>
+        <v>227</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102">
+        <v>633</v>
+      </c>
+      <c r="D102">
+        <v>508</v>
+      </c>
+      <c r="E102">
+        <v>806</v>
+      </c>
+      <c r="F102">
+        <v>562</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="24"/>
+        <v>173</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="26"/>
+        <v>633</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="27"/>
+        <v>508</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="28"/>
+        <v>173</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>202</v>
+      </c>
+      <c r="E103">
+        <v>118</v>
+      </c>
+      <c r="F103">
+        <v>361</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="27"/>
+        <v>202</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="28"/>
+        <v>97</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="29"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>352</v>
+      </c>
+      <c r="D104">
+        <v>276</v>
+      </c>
+      <c r="E104">
+        <v>455</v>
+      </c>
+      <c r="F104">
+        <v>403</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="24"/>
+        <v>103</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="25"/>
+        <v>127</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="26"/>
+        <v>352</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="27"/>
+        <v>276</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="28"/>
+        <v>103</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="29"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>451</v>
+      </c>
+      <c r="D105">
+        <v>65</v>
+      </c>
+      <c r="E105">
+        <v>550</v>
+      </c>
+      <c r="F105">
+        <v>201</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="25"/>
+        <v>136</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="26"/>
+        <v>451</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="27"/>
+        <v>65</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="28"/>
+        <v>99</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="29"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>636</v>
+      </c>
+      <c r="D106">
+        <v>265</v>
+      </c>
+      <c r="E106">
+        <v>767</v>
+      </c>
+      <c r="F106">
+        <v>464</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="24"/>
+        <v>131</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="25"/>
+        <v>199</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="26"/>
+        <v>636</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="27"/>
+        <v>265</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="28"/>
+        <v>131</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>23</v>
+      </c>
+      <c r="E108">
+        <v>252</v>
+      </c>
+      <c r="F108">
+        <v>81</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="24"/>
+        <v>241</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="28"/>
+        <v>241</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109">
+        <v>578</v>
+      </c>
+      <c r="D109">
+        <v>47</v>
+      </c>
+      <c r="E109">
+        <v>764</v>
+      </c>
+      <c r="F109">
+        <v>103</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="24"/>
+        <v>186</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="25"/>
+        <v>56</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="26"/>
+        <v>578</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="27"/>
+        <v>47</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="28"/>
+        <v>186</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="29"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>29</v>
+      </c>
+      <c r="E111">
+        <v>275</v>
+      </c>
+      <c r="F111">
+        <v>93</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="24"/>
+        <v>257</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="27"/>
+        <v>29</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="28"/>
+        <v>257</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="29"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112">
+        <v>636</v>
+      </c>
+      <c r="D112">
+        <v>497</v>
+      </c>
+      <c r="E112">
+        <v>835</v>
+      </c>
+      <c r="F112">
+        <v>558</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="24"/>
+        <v>199</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="26"/>
+        <v>636</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="27"/>
+        <v>497</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="28"/>
+        <v>199</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="29"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>596</v>
+      </c>
+      <c r="D113">
+        <v>256</v>
+      </c>
+      <c r="E113">
+        <v>763</v>
+      </c>
+      <c r="F113">
+        <v>410</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="24"/>
+        <v>167</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="25"/>
+        <v>154</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="26"/>
+        <v>596</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="27"/>
+        <v>256</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="28"/>
+        <v>167</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="29"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>274</v>
+      </c>
+      <c r="F115">
+        <v>88</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="24"/>
+        <v>264</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="28"/>
+        <v>264</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="29"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116">
+        <v>518</v>
+      </c>
+      <c r="D116">
+        <v>31</v>
+      </c>
+      <c r="E116">
+        <v>749</v>
+      </c>
+      <c r="F116">
+        <v>96</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="24"/>
+        <v>231</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="26"/>
+        <v>518</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="28"/>
+        <v>231</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="29"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>363</v>
+      </c>
+      <c r="D117">
+        <v>397</v>
+      </c>
+      <c r="E117">
+        <v>710</v>
+      </c>
+      <c r="F117">
+        <v>590</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="24"/>
+        <v>347</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="25"/>
+        <v>193</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="26"/>
+        <v>363</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="27"/>
+        <v>397</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="28"/>
+        <v>347</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>31</v>
+      </c>
+      <c r="E119">
+        <v>261</v>
+      </c>
+      <c r="F119">
+        <v>97</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="24"/>
+        <v>258</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="28"/>
+        <v>258</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120">
+        <v>626</v>
+      </c>
+      <c r="D120">
+        <v>521</v>
+      </c>
+      <c r="E120">
+        <v>852</v>
+      </c>
+      <c r="F120">
+        <v>580</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="24"/>
+        <v>226</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="26"/>
+        <v>626</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="27"/>
+        <v>521</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="28"/>
+        <v>226</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="29"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>288</v>
+      </c>
+      <c r="D121">
+        <v>381</v>
+      </c>
+      <c r="E121">
+        <v>490</v>
+      </c>
+      <c r="F121">
+        <v>567</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="24"/>
+        <v>202</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="25"/>
+        <v>186</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="26"/>
+        <v>288</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="27"/>
+        <v>381</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="28"/>
+        <v>202</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>

--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho01\OneDrive\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE64C3-69E5-45CB-AFE2-CCA6D3226E25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF34763-C22E-43C6-B855-94155B1FF798}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83:M123"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M23" sqref="J23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,24 +651,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1385,40 +1385,40 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F23">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G23">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H23">
         <f t="shared" si="13"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J23">
         <f t="shared" si="14"/>
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K23">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23">
         <f t="shared" si="16"/>
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="M23">
         <f t="shared" si="17"/>
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -2504,46 +2504,46 @@
       </c>
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>38</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>21</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>248</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>73</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <f t="shared" ref="G55:G81" si="18">E55-C55</f>
         <v>210</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <f t="shared" ref="H55:H81" si="19">F55-D55</f>
         <v>52</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
         <f t="shared" ref="J55:J81" si="20">C55</f>
         <v>38</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="3">
         <f t="shared" ref="K55:K81" si="21">D55</f>
         <v>21</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="3">
         <f t="shared" ref="L55:L81" si="22">G55</f>
         <v>210</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="3">
         <f t="shared" ref="M55:M81" si="23">H55</f>
         <v>52</v>
       </c>
@@ -3488,27 +3488,27 @@
         <v>90</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G82:G122" si="24">E83-C83</f>
+        <f t="shared" ref="G83:G121" si="24">E83-C83</f>
         <v>225</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H82:H122" si="25">F83-D83</f>
+        <f t="shared" ref="H83:H121" si="25">F83-D83</f>
         <v>56</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J82:J122" si="26">C83</f>
+        <f t="shared" ref="J83:J121" si="26">C83</f>
         <v>54</v>
       </c>
       <c r="K83">
-        <f t="shared" ref="K82:K122" si="27">D83</f>
+        <f t="shared" ref="K83:K121" si="27">D83</f>
         <v>34</v>
       </c>
       <c r="L83">
-        <f t="shared" ref="L82:L122" si="28">G83</f>
+        <f t="shared" ref="L83:L121" si="28">G83</f>
         <v>225</v>
       </c>
       <c r="M83">
-        <f t="shared" ref="M82:M122" si="29">H83</f>
+        <f t="shared" ref="M83:M121" si="29">H83</f>
         <v>56</v>
       </c>
     </row>
@@ -3558,40 +3558,40 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="D85">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E85">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="F85">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="G85">
         <f t="shared" si="24"/>
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="H85">
         <f t="shared" si="25"/>
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="J85">
         <f t="shared" si="26"/>
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="K85">
         <f t="shared" si="27"/>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L85">
         <f t="shared" si="28"/>
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M85">
         <f t="shared" si="29"/>
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">

--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho01\OneDrive\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF34763-C22E-43C6-B855-94155B1FF798}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -297,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M23" sqref="J23:M23"/>
+    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115:M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2524,27 +2523,27 @@
         <v>73</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ref="G55:G81" si="18">E55-C55</f>
+        <f t="shared" ref="G55:G84" si="18">E55-C55</f>
         <v>210</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55:H81" si="19">F55-D55</f>
+        <f t="shared" ref="H55:H84" si="19">F55-D55</f>
         <v>52</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" ref="J55:J81" si="20">C55</f>
+        <f t="shared" ref="J55:J84" si="20">C55</f>
         <v>38</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" ref="K55:K81" si="21">D55</f>
+        <f t="shared" ref="K55:K84" si="21">D55</f>
         <v>21</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" ref="L55:L81" si="22">G55</f>
+        <f t="shared" ref="L55:L84" si="22">G55</f>
         <v>210</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" ref="M55:M81" si="23">H55</f>
+        <f t="shared" ref="M55:M84" si="23">H55</f>
         <v>52</v>
       </c>
     </row>
@@ -2721,40 +2720,40 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E61">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F61">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61">
         <f t="shared" si="18"/>
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H61">
         <f t="shared" si="19"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K61">
         <f t="shared" si="21"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L61">
         <f t="shared" si="22"/>
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M61">
         <f t="shared" si="23"/>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
@@ -2804,520 +2803,520 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>623</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="E63">
-        <v>717</v>
+        <v>124</v>
       </c>
       <c r="F63">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="G63">
         <f t="shared" si="18"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H63">
         <f t="shared" si="19"/>
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="J63">
         <f t="shared" si="20"/>
-        <v>623</v>
+        <v>27</v>
       </c>
       <c r="K63">
         <f t="shared" si="21"/>
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="L63">
         <f t="shared" si="22"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M63">
         <f t="shared" si="23"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>273</v>
+      </c>
+      <c r="E64">
+        <v>135</v>
+      </c>
+      <c r="F64">
+        <v>440</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="18"/>
+        <v>118</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="19"/>
+        <v>167</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="21"/>
+        <v>273</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="22"/>
+        <v>118</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="23"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>623</v>
+      </c>
+      <c r="D65">
+        <v>179</v>
+      </c>
+      <c r="E65">
+        <v>717</v>
+      </c>
+      <c r="F65">
+        <v>362</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="24">E65-C65</f>
+        <v>94</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65" si="25">F65-D65</f>
         <v>183</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="J65">
+        <f t="shared" ref="J65" si="26">C65</f>
+        <v>623</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65" si="27">D65</f>
+        <v>179</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65" si="28">G65</f>
+        <v>94</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65" si="29">H65</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>36</v>
       </c>
-      <c r="C65">
-        <v>25</v>
-      </c>
-      <c r="D65">
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
         <v>13</v>
       </c>
-      <c r="E65">
+      <c r="E67">
         <v>240</v>
       </c>
-      <c r="F65">
+      <c r="F67">
         <v>68</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <f t="shared" si="18"/>
-        <v>215</v>
-      </c>
-      <c r="H65">
+        <v>225</v>
+      </c>
+      <c r="H67">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="J65">
+      <c r="J67">
         <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-      <c r="K65">
+        <v>15</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="L65">
+      <c r="L67">
         <f t="shared" si="22"/>
-        <v>215</v>
-      </c>
-      <c r="M65">
+        <v>225</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>39</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>630</v>
       </c>
-      <c r="D66">
+      <c r="D68">
         <v>42</v>
       </c>
-      <c r="E66">
+      <c r="E68">
         <v>807</v>
       </c>
-      <c r="F66">
+      <c r="F68">
         <v>96</v>
       </c>
-      <c r="G66">
+      <c r="G68">
         <f t="shared" si="18"/>
         <v>177</v>
       </c>
-      <c r="H66">
+      <c r="H68">
         <f t="shared" si="19"/>
         <v>54</v>
       </c>
-      <c r="J66">
+      <c r="J68">
         <f t="shared" si="20"/>
         <v>630</v>
       </c>
-      <c r="K66">
+      <c r="K68">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
-      <c r="L66">
+      <c r="L68">
         <f t="shared" si="22"/>
         <v>177</v>
       </c>
-      <c r="M66">
+      <c r="M68">
         <f t="shared" si="23"/>
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>40</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>633</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <v>407</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <v>807</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <v>463</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <f t="shared" si="18"/>
         <v>174</v>
       </c>
-      <c r="H67">
+      <c r="H69">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J67">
+      <c r="J69">
         <f t="shared" si="20"/>
         <v>633</v>
       </c>
-      <c r="K67">
+      <c r="K69">
         <f t="shared" si="21"/>
         <v>407</v>
       </c>
-      <c r="L67">
+      <c r="L69">
         <f t="shared" si="22"/>
         <v>174</v>
       </c>
-      <c r="M67">
+      <c r="M69">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B68">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B70">
         <v>1</v>
       </c>
-      <c r="C68">
+      <c r="C70">
+        <v>359</v>
+      </c>
+      <c r="D70">
+        <v>180</v>
+      </c>
+      <c r="E70">
+        <v>455</v>
+      </c>
+      <c r="F70">
+        <v>353</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="19"/>
+        <v>173</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="20"/>
+        <v>359</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="23"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
         <v>757</v>
       </c>
-      <c r="D68">
+      <c r="D71">
         <v>179</v>
       </c>
-      <c r="E68">
+      <c r="E71">
         <v>848</v>
       </c>
-      <c r="F68">
+      <c r="F71">
         <v>367</v>
       </c>
-      <c r="G68">
+      <c r="G71">
         <f t="shared" si="18"/>
         <v>91</v>
       </c>
-      <c r="H68">
+      <c r="H71">
         <f t="shared" si="19"/>
         <v>188</v>
       </c>
-      <c r="J68">
+      <c r="J71">
         <f t="shared" si="20"/>
         <v>757</v>
       </c>
-      <c r="K68">
+      <c r="K71">
         <f t="shared" si="21"/>
         <v>179</v>
       </c>
-      <c r="L68">
+      <c r="L71">
         <f t="shared" si="22"/>
         <v>91</v>
       </c>
-      <c r="M68">
+      <c r="M71">
         <f t="shared" si="23"/>
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
         <v>891</v>
       </c>
-      <c r="D69">
+      <c r="D72">
         <v>185</v>
       </c>
-      <c r="E69">
+      <c r="E72">
         <v>989</v>
       </c>
-      <c r="F69">
+      <c r="F72">
         <v>368</v>
       </c>
-      <c r="G69">
+      <c r="G72">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="H69">
+      <c r="H72">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="J69">
+      <c r="J72">
         <f t="shared" si="20"/>
         <v>891</v>
       </c>
-      <c r="K69">
+      <c r="K72">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="L69">
+      <c r="L72">
         <f t="shared" si="22"/>
         <v>98</v>
       </c>
-      <c r="M69">
+      <c r="M72">
         <f t="shared" si="23"/>
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>34</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>33</v>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>52</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>27</v>
       </c>
-      <c r="E71">
+      <c r="E74">
         <v>265</v>
       </c>
-      <c r="F71">
+      <c r="F74">
         <v>78</v>
       </c>
-      <c r="G71">
+      <c r="G74">
         <f t="shared" si="18"/>
         <v>213</v>
       </c>
-      <c r="H71">
+      <c r="H74">
         <f t="shared" si="19"/>
         <v>51</v>
       </c>
-      <c r="J71">
+      <c r="J74">
         <f t="shared" si="20"/>
         <v>52</v>
       </c>
-      <c r="K71">
+      <c r="K74">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
-      <c r="L71">
+      <c r="L74">
         <f t="shared" si="22"/>
         <v>213</v>
       </c>
-      <c r="M71">
+      <c r="M74">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>41</v>
       </c>
-      <c r="C72">
+      <c r="C75">
         <v>631</v>
       </c>
-      <c r="D72">
+      <c r="D75">
         <v>43</v>
       </c>
-      <c r="E72">
+      <c r="E75">
         <v>805</v>
       </c>
-      <c r="F72">
+      <c r="F75">
         <v>98</v>
       </c>
-      <c r="G72">
+      <c r="G75">
         <f t="shared" si="18"/>
         <v>174</v>
       </c>
-      <c r="H72">
+      <c r="H75">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="J72">
+      <c r="J75">
         <f t="shared" si="20"/>
         <v>631</v>
       </c>
-      <c r="K72">
+      <c r="K75">
         <f t="shared" si="21"/>
         <v>43</v>
       </c>
-      <c r="L72">
+      <c r="L75">
         <f t="shared" si="22"/>
         <v>174</v>
       </c>
-      <c r="M72">
+      <c r="M75">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>42</v>
       </c>
-      <c r="C73">
+      <c r="C76">
         <v>634</v>
       </c>
-      <c r="D73">
+      <c r="D76">
         <v>408</v>
       </c>
-      <c r="E73">
+      <c r="E76">
         <v>807</v>
       </c>
-      <c r="F73">
+      <c r="F76">
         <v>464</v>
       </c>
-      <c r="G73">
+      <c r="G76">
         <f t="shared" si="18"/>
         <v>173</v>
       </c>
-      <c r="H73">
+      <c r="H76">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J73">
+      <c r="J76">
         <f t="shared" si="20"/>
         <v>634</v>
       </c>
-      <c r="K73">
+      <c r="K76">
         <f t="shared" si="21"/>
         <v>408</v>
       </c>
-      <c r="L73">
+      <c r="L76">
         <f t="shared" si="22"/>
         <v>173</v>
       </c>
-      <c r="M73">
+      <c r="M76">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B74">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="C74">
+      <c r="C77">
         <v>364</v>
       </c>
-      <c r="D74">
+      <c r="D77">
         <v>180</v>
       </c>
-      <c r="E74">
+      <c r="E77">
         <v>452</v>
       </c>
-      <c r="F74">
+      <c r="F77">
         <v>369</v>
       </c>
-      <c r="G74">
+      <c r="G77">
         <f t="shared" si="18"/>
         <v>88</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="19"/>
-        <v>189</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="22"/>
-        <v>88</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="23"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>487</v>
-      </c>
-      <c r="D75">
-        <v>180</v>
-      </c>
-      <c r="E75">
-        <v>588</v>
-      </c>
-      <c r="F75">
-        <v>369</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="18"/>
-        <v>101</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="19"/>
-        <v>189</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="20"/>
-        <v>487</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="22"/>
-        <v>101</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="23"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>625</v>
-      </c>
-      <c r="D76">
-        <v>180</v>
-      </c>
-      <c r="E76">
-        <v>721</v>
-      </c>
-      <c r="F76">
-        <v>369</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="18"/>
-        <v>96</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="19"/>
-        <v>189</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="20"/>
-        <v>625</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="23"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>757</v>
-      </c>
-      <c r="D77">
-        <v>180</v>
-      </c>
-      <c r="E77">
-        <v>847</v>
-      </c>
-      <c r="F77">
-        <v>369</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="18"/>
-        <v>90</v>
       </c>
       <c r="H77">
         <f t="shared" si="19"/>
@@ -3325,7 +3324,7 @@
       </c>
       <c r="J77">
         <f t="shared" si="20"/>
-        <v>757</v>
+        <v>364</v>
       </c>
       <c r="K77">
         <f t="shared" si="21"/>
@@ -3333,7 +3332,7 @@
       </c>
       <c r="L77">
         <f t="shared" si="22"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M77">
         <f t="shared" si="23"/>
@@ -3342,23 +3341,23 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>891</v>
+        <v>487</v>
       </c>
       <c r="D78">
         <v>180</v>
       </c>
       <c r="E78">
-        <v>990</v>
+        <v>588</v>
       </c>
       <c r="F78">
         <v>369</v>
       </c>
       <c r="G78">
         <f t="shared" si="18"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H78">
         <f t="shared" si="19"/>
@@ -3366,7 +3365,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="20"/>
-        <v>891</v>
+        <v>487</v>
       </c>
       <c r="K78">
         <f t="shared" si="21"/>
@@ -3374,1272 +3373,1309 @@
       </c>
       <c r="L78">
         <f t="shared" si="22"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M78">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>625</v>
+      </c>
+      <c r="D79">
+        <v>180</v>
+      </c>
+      <c r="E79">
+        <v>721</v>
+      </c>
+      <c r="F79">
+        <v>369</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="20"/>
+        <v>625</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" t="s">
-        <v>33</v>
+      <c r="B80">
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>52</v>
+        <v>757</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="E80">
-        <v>267</v>
+        <v>847</v>
       </c>
       <c r="F80">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="G80">
         <f t="shared" si="18"/>
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="H80">
         <f t="shared" si="19"/>
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="J80">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>757</v>
       </c>
       <c r="K80">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="L80">
         <f t="shared" si="22"/>
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="M80">
         <f t="shared" si="23"/>
-        <v>56</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>43</v>
+      <c r="B81">
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>634</v>
+        <v>891</v>
       </c>
       <c r="D81">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="E81">
-        <v>811</v>
+        <v>990</v>
       </c>
       <c r="F81">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="G81">
         <f t="shared" si="18"/>
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="H81">
         <f t="shared" si="19"/>
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="J81">
         <f t="shared" si="20"/>
-        <v>634</v>
+        <v>891</v>
       </c>
       <c r="K81">
         <f t="shared" si="21"/>
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="L81">
         <f t="shared" si="22"/>
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="M81">
         <f t="shared" si="23"/>
-        <v>51</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C83">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E83">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F83">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83:G121" si="24">E83-C83</f>
-        <v>225</v>
+        <f t="shared" si="18"/>
+        <v>215</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H83:H121" si="25">F83-D83</f>
+        <f t="shared" si="19"/>
         <v>56</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J83:J121" si="26">C83</f>
-        <v>54</v>
+        <f t="shared" si="20"/>
+        <v>52</v>
       </c>
       <c r="K83">
-        <f t="shared" ref="K83:K121" si="27">D83</f>
-        <v>34</v>
+        <f t="shared" si="21"/>
+        <v>24</v>
       </c>
       <c r="L83">
-        <f t="shared" ref="L83:L121" si="28">G83</f>
-        <v>225</v>
+        <f t="shared" si="22"/>
+        <v>215</v>
       </c>
       <c r="M83">
-        <f t="shared" ref="M83:M121" si="29">H83</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84">
+        <v>634</v>
+      </c>
+      <c r="D84">
+        <v>408</v>
+      </c>
+      <c r="E84">
+        <v>811</v>
+      </c>
+      <c r="F84">
+        <v>459</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>177</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="20"/>
+        <v>634</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="21"/>
+        <v>408</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="22"/>
+        <v>177</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>54</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <v>279</v>
+      </c>
+      <c r="F86">
+        <v>90</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G125" si="30">E86-C86</f>
+        <v>225</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:H125" si="31">F86-D86</f>
+        <v>56</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86:J125" si="32">C86</f>
+        <v>54</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K125" si="33">D86</f>
+        <v>34</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ref="L86:L125" si="34">G86</f>
+        <v>225</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86:M125" si="35">H86</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>46</v>
       </c>
-      <c r="C84">
+      <c r="C87">
         <v>633</v>
       </c>
-      <c r="D84">
+      <c r="D87">
         <v>31</v>
       </c>
-      <c r="E84">
+      <c r="E87">
         <v>808</v>
       </c>
-      <c r="F84">
+      <c r="F87">
         <v>84</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="24"/>
+      <c r="G87">
+        <f t="shared" si="30"/>
         <v>175</v>
       </c>
-      <c r="H84">
-        <f t="shared" si="25"/>
+      <c r="H87">
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="26"/>
+      <c r="J87">
+        <f t="shared" si="32"/>
         <v>633</v>
       </c>
-      <c r="K84">
-        <f t="shared" si="27"/>
+      <c r="K87">
+        <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="L84">
-        <f t="shared" si="28"/>
+      <c r="L87">
+        <f t="shared" si="34"/>
         <v>175</v>
       </c>
-      <c r="M84">
-        <f t="shared" si="29"/>
+      <c r="M87">
+        <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B85">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B88">
         <v>1</v>
       </c>
-      <c r="C85">
+      <c r="C88">
         <v>819</v>
       </c>
-      <c r="D85">
+      <c r="D88">
         <v>293</v>
       </c>
-      <c r="E85">
+      <c r="E88">
         <v>931</v>
       </c>
-      <c r="F85">
+      <c r="F88">
         <v>418</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="24"/>
+      <c r="G88">
+        <f t="shared" si="30"/>
         <v>112</v>
       </c>
-      <c r="H85">
-        <f t="shared" si="25"/>
+      <c r="H88">
+        <f t="shared" si="31"/>
         <v>125</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="26"/>
+      <c r="J88">
+        <f t="shared" si="32"/>
         <v>819</v>
       </c>
-      <c r="K85">
-        <f t="shared" si="27"/>
+      <c r="K88">
+        <f t="shared" si="33"/>
         <v>293</v>
       </c>
-      <c r="L85">
-        <f t="shared" si="28"/>
+      <c r="L88">
+        <f t="shared" si="34"/>
         <v>112</v>
       </c>
-      <c r="M85">
-        <f t="shared" si="29"/>
+      <c r="M88">
+        <f t="shared" si="35"/>
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B86">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B89">
         <v>2</v>
       </c>
-      <c r="C86">
+      <c r="C89">
         <v>931</v>
       </c>
-      <c r="D86">
+      <c r="D89">
         <v>126</v>
       </c>
-      <c r="E86">
+      <c r="E89">
         <v>1007</v>
       </c>
-      <c r="F86">
+      <c r="F89">
         <v>481</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="24"/>
+      <c r="G89">
+        <f t="shared" si="30"/>
         <v>76</v>
       </c>
-      <c r="H86">
-        <f t="shared" si="25"/>
+      <c r="H89">
+        <f t="shared" si="31"/>
         <v>355</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="26"/>
+      <c r="J89">
+        <f t="shared" si="32"/>
         <v>931</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="27"/>
+      <c r="K89">
+        <f t="shared" si="33"/>
         <v>126</v>
       </c>
-      <c r="L86">
-        <f t="shared" si="28"/>
+      <c r="L89">
+        <f t="shared" si="34"/>
         <v>76</v>
       </c>
-      <c r="M86">
-        <f t="shared" si="29"/>
+      <c r="M89">
+        <f t="shared" si="35"/>
         <v>355</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>47</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>45</v>
       </c>
-      <c r="C88">
+      <c r="C91">
         <v>52</v>
       </c>
-      <c r="D88">
+      <c r="D91">
         <v>38</v>
       </c>
-      <c r="E88">
+      <c r="E91">
         <v>277</v>
       </c>
-      <c r="F88">
+      <c r="F91">
         <v>94</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="24"/>
+      <c r="G91">
+        <f t="shared" si="30"/>
         <v>225</v>
       </c>
-      <c r="H88">
-        <f t="shared" si="25"/>
+      <c r="H91">
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="26"/>
+      <c r="J91">
+        <f t="shared" si="32"/>
         <v>52</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="27"/>
+      <c r="K91">
+        <f t="shared" si="33"/>
         <v>38</v>
       </c>
-      <c r="L88">
-        <f t="shared" si="28"/>
+      <c r="L91">
+        <f t="shared" si="34"/>
         <v>225</v>
       </c>
-      <c r="M88">
-        <f t="shared" si="29"/>
+      <c r="M91">
+        <f t="shared" si="35"/>
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
         <v>48</v>
       </c>
-      <c r="C89">
+      <c r="C92">
         <v>628</v>
       </c>
-      <c r="D89">
+      <c r="D92">
         <v>38</v>
       </c>
-      <c r="E89">
+      <c r="E92">
         <v>801</v>
       </c>
-      <c r="F89">
+      <c r="F92">
         <v>92</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="24"/>
+      <c r="G92">
+        <f t="shared" si="30"/>
         <v>173</v>
       </c>
-      <c r="H89">
-        <f t="shared" si="25"/>
+      <c r="H92">
+        <f t="shared" si="31"/>
         <v>54</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="26"/>
+      <c r="J92">
+        <f t="shared" si="32"/>
         <v>628</v>
       </c>
-      <c r="K89">
-        <f t="shared" si="27"/>
+      <c r="K92">
+        <f t="shared" si="33"/>
         <v>38</v>
       </c>
-      <c r="L89">
-        <f t="shared" si="28"/>
+      <c r="L92">
+        <f t="shared" si="34"/>
         <v>173</v>
       </c>
-      <c r="M89">
-        <f t="shared" si="29"/>
+      <c r="M92">
+        <f t="shared" si="35"/>
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
         <v>49</v>
       </c>
-      <c r="C90">
+      <c r="C93">
         <v>632</v>
       </c>
-      <c r="D90">
+      <c r="D93">
         <v>509</v>
       </c>
-      <c r="E90">
+      <c r="E93">
         <v>804</v>
       </c>
-      <c r="F90">
+      <c r="F93">
         <v>562</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="24"/>
+      <c r="G93">
+        <f t="shared" si="30"/>
         <v>172</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="25"/>
+      <c r="H93">
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="26"/>
+      <c r="J93">
+        <f t="shared" si="32"/>
         <v>632</v>
       </c>
-      <c r="K90">
-        <f t="shared" si="27"/>
+      <c r="K93">
+        <f t="shared" si="33"/>
         <v>509</v>
       </c>
-      <c r="L90">
-        <f t="shared" si="28"/>
+      <c r="L93">
+        <f t="shared" si="34"/>
         <v>172</v>
       </c>
-      <c r="M90">
-        <f t="shared" si="29"/>
+      <c r="M93">
+        <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B91">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B94">
         <v>1</v>
       </c>
-      <c r="C91">
+      <c r="C94">
         <v>373</v>
       </c>
-      <c r="D91">
+      <c r="D94">
         <v>91</v>
       </c>
-      <c r="E91">
+      <c r="E94">
         <v>460</v>
       </c>
-      <c r="F91">
+      <c r="F94">
         <v>228</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="24"/>
+      <c r="G94">
+        <f t="shared" si="30"/>
         <v>87</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="25"/>
+      <c r="H94">
+        <f t="shared" si="31"/>
         <v>137</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="26"/>
+      <c r="J94">
+        <f t="shared" si="32"/>
         <v>373</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="27"/>
+      <c r="K94">
+        <f t="shared" si="33"/>
         <v>91</v>
       </c>
-      <c r="L91">
-        <f t="shared" si="28"/>
+      <c r="L94">
+        <f t="shared" si="34"/>
         <v>87</v>
       </c>
-      <c r="M91">
-        <f t="shared" si="29"/>
+      <c r="M94">
+        <f t="shared" si="35"/>
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B92">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B95">
         <v>2</v>
       </c>
-      <c r="C92">
+      <c r="C95">
         <v>375</v>
       </c>
-      <c r="D92">
+      <c r="D95">
         <v>274</v>
       </c>
-      <c r="E92">
+      <c r="E95">
         <v>456</v>
       </c>
-      <c r="F92">
+      <c r="F95">
         <v>421</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="24"/>
+      <c r="G95">
+        <f t="shared" si="30"/>
         <v>81</v>
       </c>
-      <c r="H92">
-        <f t="shared" si="25"/>
+      <c r="H95">
+        <f t="shared" si="31"/>
         <v>147</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="26"/>
+      <c r="J95">
+        <f t="shared" si="32"/>
         <v>375</v>
       </c>
-      <c r="K92">
-        <f t="shared" si="27"/>
+      <c r="K95">
+        <f t="shared" si="33"/>
         <v>274</v>
       </c>
-      <c r="L92">
-        <f t="shared" si="28"/>
+      <c r="L95">
+        <f t="shared" si="34"/>
         <v>81</v>
       </c>
-      <c r="M92">
-        <f t="shared" si="29"/>
+      <c r="M95">
+        <f t="shared" si="35"/>
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B93">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B96">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="C96">
         <v>921</v>
       </c>
-      <c r="D93">
+      <c r="D96">
         <v>189</v>
       </c>
-      <c r="E93">
+      <c r="E96">
         <v>1011</v>
       </c>
-      <c r="F93">
+      <c r="F96">
         <v>353</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="24"/>
+      <c r="G96">
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="H93">
-        <f t="shared" si="25"/>
+      <c r="H96">
+        <f t="shared" si="31"/>
         <v>164</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="26"/>
+      <c r="J96">
+        <f t="shared" si="32"/>
         <v>921</v>
       </c>
-      <c r="K93">
-        <f t="shared" si="27"/>
+      <c r="K96">
+        <f t="shared" si="33"/>
         <v>189</v>
       </c>
-      <c r="L93">
-        <f t="shared" si="28"/>
+      <c r="L96">
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
-      <c r="M93">
-        <f t="shared" si="29"/>
+      <c r="M96">
+        <f t="shared" si="35"/>
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>50</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>45</v>
       </c>
-      <c r="C95">
+      <c r="C98">
         <v>54</v>
       </c>
-      <c r="D95">
+      <c r="D98">
         <v>44</v>
       </c>
-      <c r="E95">
+      <c r="E98">
         <v>280</v>
       </c>
-      <c r="F95">
+      <c r="F98">
         <v>99</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="24"/>
+      <c r="G98">
+        <f t="shared" si="30"/>
         <v>226</v>
       </c>
-      <c r="H95">
-        <f t="shared" si="25"/>
+      <c r="H98">
+        <f t="shared" si="31"/>
         <v>55</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="26"/>
+      <c r="J98">
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
-      <c r="K95">
-        <f t="shared" si="27"/>
+      <c r="K98">
+        <f t="shared" si="33"/>
         <v>44</v>
       </c>
-      <c r="L95">
-        <f t="shared" si="28"/>
+      <c r="L98">
+        <f t="shared" si="34"/>
         <v>226</v>
       </c>
-      <c r="M95">
-        <f t="shared" si="29"/>
+      <c r="M98">
+        <f t="shared" si="35"/>
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
         <v>51</v>
       </c>
-      <c r="C96">
+      <c r="C99">
         <v>628</v>
       </c>
-      <c r="D96">
+      <c r="D99">
         <v>38</v>
       </c>
-      <c r="E96">
+      <c r="E99">
         <v>804</v>
       </c>
-      <c r="F96">
+      <c r="F99">
         <v>92</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="24"/>
+      <c r="G99">
+        <f t="shared" si="30"/>
         <v>176</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="25"/>
+      <c r="H99">
+        <f t="shared" si="31"/>
         <v>54</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="26"/>
+      <c r="J99">
+        <f t="shared" si="32"/>
         <v>628</v>
       </c>
-      <c r="K96">
-        <f t="shared" si="27"/>
+      <c r="K99">
+        <f t="shared" si="33"/>
         <v>38</v>
       </c>
-      <c r="L96">
-        <f t="shared" si="28"/>
+      <c r="L99">
+        <f t="shared" si="34"/>
         <v>176</v>
       </c>
-      <c r="M96">
-        <f t="shared" si="29"/>
+      <c r="M99">
+        <f t="shared" si="35"/>
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>52</v>
       </c>
-      <c r="C97">
+      <c r="C100">
         <v>634</v>
       </c>
-      <c r="D97">
+      <c r="D100">
         <v>511</v>
       </c>
-      <c r="E97">
+      <c r="E100">
         <v>806</v>
       </c>
-      <c r="F97">
+      <c r="F100">
         <v>564</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="24"/>
+      <c r="G100">
+        <f t="shared" si="30"/>
         <v>172</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="25"/>
+      <c r="H100">
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="26"/>
+      <c r="J100">
+        <f t="shared" si="32"/>
         <v>634</v>
       </c>
-      <c r="K97">
-        <f t="shared" si="27"/>
+      <c r="K100">
+        <f t="shared" si="33"/>
         <v>511</v>
       </c>
-      <c r="L97">
-        <f t="shared" si="28"/>
+      <c r="L100">
+        <f t="shared" si="34"/>
         <v>172</v>
       </c>
-      <c r="M97">
-        <f t="shared" si="29"/>
+      <c r="M100">
+        <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B98">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B101">
         <v>1</v>
       </c>
-      <c r="C98">
+      <c r="C101">
         <v>628</v>
       </c>
-      <c r="D98">
+      <c r="D101">
         <v>275</v>
       </c>
-      <c r="E98">
+      <c r="E101">
         <v>723</v>
       </c>
-      <c r="F98">
+      <c r="F101">
         <v>394</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="24"/>
+      <c r="G101">
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="25"/>
+      <c r="H101">
+        <f t="shared" si="31"/>
         <v>119</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="26"/>
+      <c r="J101">
+        <f t="shared" si="32"/>
         <v>628</v>
       </c>
-      <c r="K98">
-        <f t="shared" si="27"/>
+      <c r="K101">
+        <f t="shared" si="33"/>
         <v>275</v>
       </c>
-      <c r="L98">
-        <f t="shared" si="28"/>
+      <c r="L101">
+        <f t="shared" si="34"/>
         <v>95</v>
       </c>
-      <c r="M98">
-        <f t="shared" si="29"/>
+      <c r="M101">
+        <f t="shared" si="35"/>
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B99">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B102">
         <v>2</v>
       </c>
-      <c r="C99">
+      <c r="C102">
         <v>835</v>
       </c>
-      <c r="D99">
+      <c r="D102">
         <v>276</v>
       </c>
-      <c r="E99">
+      <c r="E102">
         <v>940</v>
       </c>
-      <c r="F99">
+      <c r="F102">
         <v>407</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="24"/>
+      <c r="G102">
+        <f t="shared" si="30"/>
         <v>105</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="25"/>
+      <c r="H102">
+        <f t="shared" si="31"/>
         <v>131</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="26"/>
+      <c r="J102">
+        <f t="shared" si="32"/>
         <v>835</v>
       </c>
-      <c r="K99">
-        <f t="shared" si="27"/>
+      <c r="K102">
+        <f t="shared" si="33"/>
         <v>276</v>
       </c>
-      <c r="L99">
-        <f t="shared" si="28"/>
+      <c r="L102">
+        <f t="shared" si="34"/>
         <v>105</v>
       </c>
-      <c r="M99">
-        <f t="shared" si="29"/>
+      <c r="M102">
+        <f t="shared" si="35"/>
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>53</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>45</v>
       </c>
-      <c r="C101">
+      <c r="C104">
         <v>52</v>
       </c>
-      <c r="D101">
+      <c r="D104">
         <v>39</v>
       </c>
-      <c r="E101">
+      <c r="E104">
         <v>279</v>
       </c>
-      <c r="F101">
+      <c r="F104">
         <v>96</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="24"/>
+      <c r="G104">
+        <f t="shared" si="30"/>
         <v>227</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="25"/>
+      <c r="H104">
+        <f t="shared" si="31"/>
         <v>57</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="26"/>
+      <c r="J104">
+        <f t="shared" si="32"/>
         <v>52</v>
       </c>
-      <c r="K101">
-        <f t="shared" si="27"/>
+      <c r="K104">
+        <f t="shared" si="33"/>
         <v>39</v>
       </c>
-      <c r="L101">
-        <f t="shared" si="28"/>
+      <c r="L104">
+        <f t="shared" si="34"/>
         <v>227</v>
       </c>
-      <c r="M101">
-        <f t="shared" si="29"/>
+      <c r="M104">
+        <f t="shared" si="35"/>
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
         <v>54</v>
       </c>
-      <c r="C102">
+      <c r="C105">
         <v>633</v>
       </c>
-      <c r="D102">
+      <c r="D105">
         <v>508</v>
       </c>
-      <c r="E102">
+      <c r="E105">
         <v>806</v>
       </c>
-      <c r="F102">
+      <c r="F105">
         <v>562</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="24"/>
+      <c r="G105">
+        <f t="shared" si="30"/>
         <v>173</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="25"/>
+      <c r="H105">
+        <f t="shared" si="31"/>
         <v>54</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="26"/>
+      <c r="J105">
+        <f t="shared" si="32"/>
         <v>633</v>
       </c>
-      <c r="K102">
-        <f t="shared" si="27"/>
+      <c r="K105">
+        <f t="shared" si="33"/>
         <v>508</v>
       </c>
-      <c r="L102">
-        <f t="shared" si="28"/>
+      <c r="L105">
+        <f t="shared" si="34"/>
         <v>173</v>
       </c>
-      <c r="M102">
-        <f t="shared" si="29"/>
+      <c r="M105">
+        <f t="shared" si="35"/>
         <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>21</v>
-      </c>
-      <c r="D103">
-        <v>202</v>
-      </c>
-      <c r="E103">
-        <v>118</v>
-      </c>
-      <c r="F103">
-        <v>361</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="24"/>
-        <v>97</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="25"/>
-        <v>159</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="27"/>
-        <v>202</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="28"/>
-        <v>97</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="29"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104">
-        <v>352</v>
-      </c>
-      <c r="D104">
-        <v>276</v>
-      </c>
-      <c r="E104">
-        <v>455</v>
-      </c>
-      <c r="F104">
-        <v>403</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="24"/>
-        <v>103</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="25"/>
-        <v>127</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="26"/>
-        <v>352</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="27"/>
-        <v>276</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="28"/>
-        <v>103</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="29"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105">
-        <v>451</v>
-      </c>
-      <c r="D105">
-        <v>65</v>
-      </c>
-      <c r="E105">
-        <v>550</v>
-      </c>
-      <c r="F105">
-        <v>201</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="24"/>
-        <v>99</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="25"/>
-        <v>136</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="26"/>
-        <v>451</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="27"/>
-        <v>65</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="28"/>
-        <v>99</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="29"/>
-        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>202</v>
+      </c>
+      <c r="E106">
+        <v>118</v>
+      </c>
+      <c r="F106">
+        <v>361</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="30"/>
+        <v>97</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="31"/>
+        <v>159</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="32"/>
+        <v>21</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="33"/>
+        <v>202</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="34"/>
+        <v>97</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="35"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>352</v>
+      </c>
+      <c r="D107">
+        <v>276</v>
+      </c>
+      <c r="E107">
+        <v>455</v>
+      </c>
+      <c r="F107">
+        <v>403</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="30"/>
+        <v>103</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="31"/>
+        <v>127</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="32"/>
+        <v>352</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="33"/>
+        <v>276</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="34"/>
+        <v>103</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="35"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>451</v>
+      </c>
+      <c r="D108">
+        <v>65</v>
+      </c>
+      <c r="E108">
+        <v>550</v>
+      </c>
+      <c r="F108">
+        <v>201</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="30"/>
+        <v>99</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="31"/>
+        <v>136</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="32"/>
+        <v>451</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="33"/>
+        <v>65</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="34"/>
+        <v>99</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="35"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B109">
         <v>4</v>
       </c>
-      <c r="C106">
+      <c r="C109">
         <v>636</v>
       </c>
-      <c r="D106">
+      <c r="D109">
         <v>265</v>
       </c>
-      <c r="E106">
+      <c r="E109">
         <v>767</v>
       </c>
-      <c r="F106">
+      <c r="F109">
         <v>464</v>
       </c>
-      <c r="G106">
-        <f t="shared" si="24"/>
+      <c r="G109">
+        <f t="shared" si="30"/>
         <v>131</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="25"/>
+      <c r="H109">
+        <f t="shared" si="31"/>
         <v>199</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="26"/>
+      <c r="J109">
+        <f t="shared" si="32"/>
         <v>636</v>
       </c>
-      <c r="K106">
-        <f t="shared" si="27"/>
+      <c r="K109">
+        <f t="shared" si="33"/>
         <v>265</v>
       </c>
-      <c r="L106">
-        <f t="shared" si="28"/>
+      <c r="L109">
+        <f t="shared" si="34"/>
         <v>131</v>
       </c>
-      <c r="M106">
-        <f t="shared" si="29"/>
+      <c r="M109">
+        <f t="shared" si="35"/>
         <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" t="s">
-        <v>45</v>
-      </c>
-      <c r="C108">
-        <v>11</v>
-      </c>
-      <c r="D108">
-        <v>23</v>
-      </c>
-      <c r="E108">
-        <v>252</v>
-      </c>
-      <c r="F108">
-        <v>81</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="24"/>
-        <v>241</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="25"/>
-        <v>58</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="27"/>
-        <v>23</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="28"/>
-        <v>241</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="29"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B109" t="s">
-        <v>56</v>
-      </c>
-      <c r="C109">
-        <v>578</v>
-      </c>
-      <c r="D109">
-        <v>47</v>
-      </c>
-      <c r="E109">
-        <v>764</v>
-      </c>
-      <c r="F109">
-        <v>103</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="24"/>
-        <v>186</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="25"/>
-        <v>56</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="26"/>
-        <v>578</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="27"/>
-        <v>47</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="28"/>
-        <v>186</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="29"/>
-        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E111">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F111">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G111">
-        <f t="shared" si="24"/>
-        <v>257</v>
+        <f t="shared" si="30"/>
+        <v>241</v>
       </c>
       <c r="H111">
-        <f t="shared" si="25"/>
-        <v>64</v>
+        <f t="shared" si="31"/>
+        <v>58</v>
       </c>
       <c r="J111">
-        <f t="shared" si="26"/>
-        <v>18</v>
+        <f t="shared" si="32"/>
+        <v>11</v>
       </c>
       <c r="K111">
-        <f t="shared" si="27"/>
-        <v>29</v>
+        <f t="shared" si="33"/>
+        <v>23</v>
       </c>
       <c r="L111">
-        <f t="shared" si="28"/>
-        <v>257</v>
+        <f t="shared" si="34"/>
+        <v>241</v>
       </c>
       <c r="M111">
-        <f t="shared" si="29"/>
-        <v>64</v>
+        <f t="shared" si="35"/>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>359</v>
+      </c>
+      <c r="D112">
+        <v>103</v>
+      </c>
+      <c r="E112">
+        <v>478</v>
+      </c>
+      <c r="F112">
+        <v>256</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="30"/>
+        <v>119</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="31"/>
+        <v>153</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="32"/>
+        <v>359</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="33"/>
+        <v>103</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="34"/>
+        <v>119</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="35"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113">
+        <v>549</v>
+      </c>
+      <c r="D113">
+        <v>47</v>
+      </c>
+      <c r="E113">
+        <v>733</v>
+      </c>
+      <c r="F113">
+        <v>105</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="30"/>
+        <v>184</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="31"/>
         <v>58</v>
       </c>
-      <c r="C112">
-        <v>636</v>
-      </c>
-      <c r="D112">
-        <v>497</v>
-      </c>
-      <c r="E112">
-        <v>835</v>
-      </c>
-      <c r="F112">
-        <v>558</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="24"/>
-        <v>199</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="25"/>
-        <v>61</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="26"/>
-        <v>636</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="27"/>
-        <v>497</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="28"/>
-        <v>199</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="29"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>596</v>
-      </c>
-      <c r="D113">
-        <v>256</v>
-      </c>
-      <c r="E113">
-        <v>763</v>
-      </c>
-      <c r="F113">
-        <v>410</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="24"/>
-        <v>167</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="25"/>
-        <v>154</v>
-      </c>
       <c r="J113">
-        <f t="shared" si="26"/>
-        <v>596</v>
+        <f t="shared" si="32"/>
+        <v>549</v>
       </c>
       <c r="K113">
-        <f t="shared" si="27"/>
-        <v>256</v>
+        <f t="shared" si="33"/>
+        <v>47</v>
       </c>
       <c r="L113">
-        <f t="shared" si="28"/>
-        <v>167</v>
+        <f t="shared" si="34"/>
+        <v>184</v>
       </c>
       <c r="M113">
-        <f t="shared" si="29"/>
-        <v>154</v>
+        <f t="shared" si="35"/>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s">
         <v>45</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E115">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F115">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G115">
-        <f t="shared" si="24"/>
-        <v>264</v>
+        <f t="shared" si="30"/>
+        <v>255</v>
       </c>
       <c r="H115">
-        <f t="shared" si="25"/>
-        <v>68</v>
+        <f t="shared" si="31"/>
+        <v>66</v>
       </c>
       <c r="J115">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="32"/>
+        <v>29</v>
       </c>
       <c r="K115">
-        <f t="shared" si="27"/>
-        <v>20</v>
+        <f t="shared" si="33"/>
+        <v>29</v>
       </c>
       <c r="L115">
-        <f t="shared" si="28"/>
-        <v>264</v>
+        <f t="shared" si="34"/>
+        <v>255</v>
       </c>
       <c r="M115">
-        <f t="shared" si="29"/>
-        <v>68</v>
+        <f t="shared" si="35"/>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C116">
-        <v>518</v>
+        <v>641</v>
       </c>
       <c r="D116">
-        <v>31</v>
+        <v>493</v>
       </c>
       <c r="E116">
-        <v>749</v>
+        <v>838</v>
       </c>
       <c r="F116">
-        <v>96</v>
+        <v>558</v>
       </c>
       <c r="G116">
-        <f t="shared" si="24"/>
-        <v>231</v>
+        <f t="shared" si="30"/>
+        <v>197</v>
       </c>
       <c r="H116">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>65</v>
       </c>
       <c r="J116">
-        <f t="shared" si="26"/>
-        <v>518</v>
+        <f t="shared" si="32"/>
+        <v>641</v>
       </c>
       <c r="K116">
-        <f t="shared" si="27"/>
-        <v>31</v>
+        <f t="shared" si="33"/>
+        <v>493</v>
       </c>
       <c r="L116">
-        <f t="shared" si="28"/>
-        <v>231</v>
+        <f t="shared" si="34"/>
+        <v>197</v>
       </c>
       <c r="M116">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>65</v>
       </c>
     </row>
@@ -4648,126 +4684,126 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>363</v>
+        <v>596</v>
       </c>
       <c r="D117">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="E117">
-        <v>710</v>
+        <v>763</v>
       </c>
       <c r="F117">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="G117">
-        <f t="shared" si="24"/>
-        <v>347</v>
+        <f t="shared" si="30"/>
+        <v>167</v>
       </c>
       <c r="H117">
-        <f t="shared" si="25"/>
-        <v>193</v>
+        <f t="shared" si="31"/>
+        <v>154</v>
       </c>
       <c r="J117">
-        <f t="shared" si="26"/>
-        <v>363</v>
+        <f t="shared" si="32"/>
+        <v>596</v>
       </c>
       <c r="K117">
-        <f t="shared" si="27"/>
-        <v>397</v>
+        <f t="shared" si="33"/>
+        <v>256</v>
       </c>
       <c r="L117">
-        <f t="shared" si="28"/>
-        <v>347</v>
+        <f t="shared" si="34"/>
+        <v>167</v>
       </c>
       <c r="M117">
-        <f t="shared" si="29"/>
-        <v>193</v>
+        <f t="shared" si="35"/>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E119">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F119">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G119">
-        <f t="shared" si="24"/>
-        <v>258</v>
+        <f t="shared" si="30"/>
+        <v>264</v>
       </c>
       <c r="H119">
-        <f t="shared" si="25"/>
-        <v>66</v>
+        <f t="shared" si="31"/>
+        <v>68</v>
       </c>
       <c r="J119">
-        <f t="shared" si="26"/>
-        <v>3</v>
+        <f t="shared" si="32"/>
+        <v>10</v>
       </c>
       <c r="K119">
-        <f t="shared" si="27"/>
-        <v>31</v>
+        <f t="shared" si="33"/>
+        <v>20</v>
       </c>
       <c r="L119">
-        <f t="shared" si="28"/>
-        <v>258</v>
+        <f t="shared" si="34"/>
+        <v>264</v>
       </c>
       <c r="M119">
-        <f t="shared" si="29"/>
-        <v>66</v>
+        <f t="shared" si="35"/>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C120">
-        <v>626</v>
+        <v>518</v>
       </c>
       <c r="D120">
-        <v>521</v>
+        <v>31</v>
       </c>
       <c r="E120">
-        <v>852</v>
+        <v>749</v>
       </c>
       <c r="F120">
-        <v>580</v>
+        <v>96</v>
       </c>
       <c r="G120">
-        <f t="shared" si="24"/>
-        <v>226</v>
+        <f t="shared" si="30"/>
+        <v>231</v>
       </c>
       <c r="H120">
-        <f t="shared" si="25"/>
-        <v>59</v>
+        <f t="shared" si="31"/>
+        <v>65</v>
       </c>
       <c r="J120">
-        <f t="shared" si="26"/>
-        <v>626</v>
+        <f t="shared" si="32"/>
+        <v>518</v>
       </c>
       <c r="K120">
-        <f t="shared" si="27"/>
-        <v>521</v>
+        <f t="shared" si="33"/>
+        <v>31</v>
       </c>
       <c r="L120">
-        <f t="shared" si="28"/>
-        <v>226</v>
+        <f t="shared" si="34"/>
+        <v>231</v>
       </c>
       <c r="M120">
-        <f t="shared" si="29"/>
-        <v>59</v>
+        <f t="shared" si="35"/>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.15">
@@ -4775,43 +4811,170 @@
         <v>1</v>
       </c>
       <c r="C121">
+        <v>363</v>
+      </c>
+      <c r="D121">
+        <v>397</v>
+      </c>
+      <c r="E121">
+        <v>710</v>
+      </c>
+      <c r="F121">
+        <v>590</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="30"/>
+        <v>347</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="31"/>
+        <v>193</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="32"/>
+        <v>363</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="33"/>
+        <v>397</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="34"/>
+        <v>347</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="35"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>31</v>
+      </c>
+      <c r="E123">
+        <v>261</v>
+      </c>
+      <c r="F123">
+        <v>97</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="30"/>
+        <v>258</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="33"/>
+        <v>31</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="34"/>
+        <v>258</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="35"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124">
+        <v>626</v>
+      </c>
+      <c r="D124">
+        <v>521</v>
+      </c>
+      <c r="E124">
+        <v>852</v>
+      </c>
+      <c r="F124">
+        <v>580</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="30"/>
+        <v>226</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="31"/>
+        <v>59</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="32"/>
+        <v>626</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="33"/>
+        <v>521</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="34"/>
+        <v>226</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="35"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
         <v>288</v>
       </c>
-      <c r="D121">
+      <c r="D125">
         <v>381</v>
       </c>
-      <c r="E121">
+      <c r="E125">
         <v>490</v>
       </c>
-      <c r="F121">
+      <c r="F125">
         <v>567</v>
       </c>
-      <c r="G121">
-        <f t="shared" si="24"/>
+      <c r="G125">
+        <f t="shared" si="30"/>
         <v>202</v>
       </c>
-      <c r="H121">
-        <f t="shared" si="25"/>
+      <c r="H125">
+        <f t="shared" si="31"/>
         <v>186</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="26"/>
+      <c r="J125">
+        <f t="shared" si="32"/>
         <v>288</v>
       </c>
-      <c r="K121">
-        <f t="shared" si="27"/>
+      <c r="K125">
+        <f t="shared" si="33"/>
         <v>381</v>
       </c>
-      <c r="L121">
-        <f t="shared" si="28"/>
+      <c r="L125">
+        <f t="shared" si="34"/>
         <v>202</v>
       </c>
-      <c r="M121">
-        <f t="shared" si="29"/>
+      <c r="M125">
+        <f t="shared" si="35"/>
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>

--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115:M116"/>
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2523,27 +2523,27 @@
         <v>73</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ref="G55:G84" si="18">E55-C55</f>
+        <f t="shared" ref="G55:G85" si="18">E55-C55</f>
         <v>210</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55:H84" si="19">F55-D55</f>
+        <f t="shared" ref="H55:H85" si="19">F55-D55</f>
         <v>52</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" ref="J55:J84" si="20">C55</f>
+        <f t="shared" ref="J55:J85" si="20">C55</f>
         <v>38</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" ref="K55:K84" si="21">D55</f>
+        <f t="shared" ref="K55:K85" si="21">D55</f>
         <v>21</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" ref="L55:L84" si="22">G55</f>
+        <f t="shared" ref="L55:L85" si="22">G55</f>
         <v>210</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" ref="M55:M84" si="23">H55</f>
+        <f t="shared" ref="M55:M85" si="23">H55</f>
         <v>52</v>
       </c>
     </row>
@@ -2672,692 +2672,692 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>160</v>
+        <v>870</v>
       </c>
       <c r="D59">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="E59">
-        <v>301</v>
+        <v>1030</v>
       </c>
       <c r="F59">
-        <v>553</v>
+        <v>210</v>
       </c>
       <c r="G59">
         <f t="shared" si="18"/>
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H59">
         <f t="shared" si="19"/>
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="J59">
         <f t="shared" si="20"/>
-        <v>160</v>
+        <v>870</v>
       </c>
       <c r="K59">
         <f t="shared" si="21"/>
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="L59">
         <f t="shared" si="22"/>
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M59">
         <f t="shared" si="23"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>474</v>
+      </c>
+      <c r="E60">
+        <v>301</v>
+      </c>
+      <c r="F60">
+        <v>553</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="18"/>
+        <v>141</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="19"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="J60">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="21"/>
+        <v>474</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="22"/>
+        <v>141</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="23"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>33</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>54</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>31</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>280</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>87</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <f t="shared" si="18"/>
         <v>226</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J61">
+      <c r="J62">
         <f t="shared" si="20"/>
         <v>54</v>
       </c>
-      <c r="K61">
+      <c r="K62">
         <f t="shared" si="21"/>
         <v>31</v>
       </c>
-      <c r="L61">
+      <c r="L62">
         <f t="shared" si="22"/>
         <v>226</v>
       </c>
-      <c r="M61">
+      <c r="M62">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>632</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>43</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>805</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>94</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <f t="shared" si="18"/>
         <v>173</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <f t="shared" si="19"/>
         <v>51</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <f t="shared" si="20"/>
         <v>632</v>
       </c>
-      <c r="K62">
+      <c r="K63">
         <f t="shared" si="21"/>
         <v>43</v>
       </c>
-      <c r="L62">
+      <c r="L63">
         <f t="shared" si="22"/>
         <v>173</v>
       </c>
-      <c r="M62">
+      <c r="M63">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B63">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>27</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>93</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>124</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>245</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <f t="shared" si="18"/>
         <v>97</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <f t="shared" si="19"/>
         <v>152</v>
       </c>
-      <c r="J63">
+      <c r="J64">
         <f t="shared" si="20"/>
         <v>27</v>
       </c>
-      <c r="K63">
+      <c r="K64">
         <f t="shared" si="21"/>
         <v>93</v>
       </c>
-      <c r="L63">
+      <c r="L64">
         <f t="shared" si="22"/>
         <v>97</v>
       </c>
-      <c r="M63">
+      <c r="M64">
         <f t="shared" si="23"/>
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B64">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B65">
         <v>2</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>17</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>273</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>135</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>440</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <f t="shared" si="19"/>
         <v>167</v>
       </c>
-      <c r="J64">
+      <c r="J65">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="K64">
+      <c r="K65">
         <f t="shared" si="21"/>
         <v>273</v>
       </c>
-      <c r="L64">
+      <c r="L65">
         <f t="shared" si="22"/>
         <v>118</v>
       </c>
-      <c r="M64">
+      <c r="M65">
         <f t="shared" si="23"/>
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B65">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B66">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>623</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>179</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>717</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>362</v>
       </c>
-      <c r="G65">
-        <f t="shared" ref="G65" si="24">E65-C65</f>
+      <c r="G66">
+        <f t="shared" ref="G66" si="24">E66-C66</f>
         <v>94</v>
       </c>
-      <c r="H65">
-        <f t="shared" ref="H65" si="25">F65-D65</f>
+      <c r="H66">
+        <f t="shared" ref="H66" si="25">F66-D66</f>
         <v>183</v>
       </c>
-      <c r="J65">
-        <f t="shared" ref="J65" si="26">C65</f>
+      <c r="J66">
+        <f t="shared" ref="J66" si="26">C66</f>
         <v>623</v>
       </c>
-      <c r="K65">
-        <f t="shared" ref="K65" si="27">D65</f>
+      <c r="K66">
+        <f t="shared" ref="K66" si="27">D66</f>
         <v>179</v>
       </c>
-      <c r="L65">
-        <f t="shared" ref="L65" si="28">G65</f>
+      <c r="L66">
+        <f t="shared" ref="L66" si="28">G66</f>
         <v>94</v>
       </c>
-      <c r="M65">
-        <f t="shared" ref="M65" si="29">H65</f>
+      <c r="M66">
+        <f t="shared" ref="M66" si="29">H66</f>
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>32</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>15</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>13</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>240</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>68</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <f t="shared" si="18"/>
         <v>225</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="J67">
+      <c r="J68">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="K67">
+      <c r="K68">
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="L67">
+      <c r="L68">
         <f t="shared" si="22"/>
         <v>225</v>
       </c>
-      <c r="M67">
+      <c r="M68">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>39</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>630</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>42</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>807</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>96</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <f t="shared" si="18"/>
         <v>177</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <f t="shared" si="19"/>
         <v>54</v>
       </c>
-      <c r="J68">
+      <c r="J69">
         <f t="shared" si="20"/>
         <v>630</v>
       </c>
-      <c r="K68">
+      <c r="K69">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
-      <c r="L68">
+      <c r="L69">
         <f t="shared" si="22"/>
         <v>177</v>
       </c>
-      <c r="M68">
+      <c r="M69">
         <f t="shared" si="23"/>
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>633</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>407</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>807</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>463</v>
       </c>
-      <c r="G69">
+      <c r="G70">
         <f t="shared" si="18"/>
         <v>174</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J69">
+      <c r="J70">
         <f t="shared" si="20"/>
         <v>633</v>
       </c>
-      <c r="K69">
+      <c r="K70">
         <f t="shared" si="21"/>
         <v>407</v>
       </c>
-      <c r="L69">
+      <c r="L70">
         <f t="shared" si="22"/>
         <v>174</v>
       </c>
-      <c r="M69">
+      <c r="M70">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B70">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B71">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>359</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>180</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>455</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>353</v>
       </c>
-      <c r="G70">
+      <c r="G71">
         <f t="shared" si="18"/>
         <v>96</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <f t="shared" si="19"/>
         <v>173</v>
       </c>
-      <c r="J70">
+      <c r="J71">
         <f t="shared" si="20"/>
         <v>359</v>
       </c>
-      <c r="K70">
+      <c r="K71">
         <f t="shared" si="21"/>
         <v>180</v>
       </c>
-      <c r="L70">
+      <c r="L71">
         <f t="shared" si="22"/>
         <v>96</v>
       </c>
-      <c r="M70">
+      <c r="M71">
         <f t="shared" si="23"/>
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B71">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B72">
         <v>2</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>757</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>179</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>848</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>367</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <f t="shared" si="18"/>
         <v>91</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <f t="shared" si="19"/>
         <v>188</v>
       </c>
-      <c r="J71">
+      <c r="J72">
         <f t="shared" si="20"/>
         <v>757</v>
       </c>
-      <c r="K71">
+      <c r="K72">
         <f t="shared" si="21"/>
         <v>179</v>
       </c>
-      <c r="L71">
+      <c r="L72">
         <f t="shared" si="22"/>
         <v>91</v>
       </c>
-      <c r="M71">
+      <c r="M72">
         <f t="shared" si="23"/>
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B72">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B73">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>891</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>185</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>989</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>368</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="J72">
+      <c r="J73">
         <f t="shared" si="20"/>
         <v>891</v>
       </c>
-      <c r="K72">
+      <c r="K73">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="L72">
+      <c r="L73">
         <f t="shared" si="22"/>
         <v>98</v>
       </c>
-      <c r="M72">
+      <c r="M73">
         <f t="shared" si="23"/>
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>34</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>33</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>52</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>27</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>265</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>78</v>
       </c>
-      <c r="G74">
+      <c r="G75">
         <f t="shared" si="18"/>
         <v>213</v>
       </c>
-      <c r="H74">
+      <c r="H75">
         <f t="shared" si="19"/>
         <v>51</v>
       </c>
-      <c r="J74">
+      <c r="J75">
         <f t="shared" si="20"/>
         <v>52</v>
       </c>
-      <c r="K74">
+      <c r="K75">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
-      <c r="L74">
+      <c r="L75">
         <f t="shared" si="22"/>
         <v>213</v>
       </c>
-      <c r="M74">
+      <c r="M75">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>41</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>631</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>43</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>805</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>98</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <f t="shared" si="18"/>
         <v>174</v>
       </c>
-      <c r="H75">
+      <c r="H76">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="J75">
+      <c r="J76">
         <f t="shared" si="20"/>
         <v>631</v>
       </c>
-      <c r="K75">
+      <c r="K76">
         <f t="shared" si="21"/>
         <v>43</v>
       </c>
-      <c r="L75">
+      <c r="L76">
         <f t="shared" si="22"/>
         <v>174</v>
       </c>
-      <c r="M75">
+      <c r="M76">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
         <v>42</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>634</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>408</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>807</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>464</v>
       </c>
-      <c r="G76">
+      <c r="G77">
         <f t="shared" si="18"/>
         <v>173</v>
       </c>
-      <c r="H76">
+      <c r="H77">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J76">
+      <c r="J77">
         <f t="shared" si="20"/>
         <v>634</v>
       </c>
-      <c r="K76">
+      <c r="K77">
         <f t="shared" si="21"/>
         <v>408</v>
       </c>
-      <c r="L76">
+      <c r="L77">
         <f t="shared" si="22"/>
         <v>173</v>
       </c>
-      <c r="M76">
+      <c r="M77">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B77">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B78">
         <v>1</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>364</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>180</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>452</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>369</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <f t="shared" si="18"/>
         <v>88</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="19"/>
-        <v>189</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="22"/>
-        <v>88</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="23"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>487</v>
-      </c>
-      <c r="D78">
-        <v>180</v>
-      </c>
-      <c r="E78">
-        <v>588</v>
-      </c>
-      <c r="F78">
-        <v>369</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="18"/>
-        <v>101</v>
       </c>
       <c r="H78">
         <f t="shared" si="19"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="20"/>
-        <v>487</v>
+        <v>364</v>
       </c>
       <c r="K78">
         <f t="shared" si="21"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="22"/>
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M78">
         <f t="shared" si="23"/>
@@ -3382,23 +3382,23 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>625</v>
+        <v>487</v>
       </c>
       <c r="D79">
         <v>180</v>
       </c>
       <c r="E79">
-        <v>721</v>
+        <v>588</v>
       </c>
       <c r="F79">
         <v>369</v>
       </c>
       <c r="G79">
         <f t="shared" si="18"/>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H79">
         <f t="shared" si="19"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="20"/>
-        <v>625</v>
+        <v>487</v>
       </c>
       <c r="K79">
         <f t="shared" si="21"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="22"/>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M79">
         <f t="shared" si="23"/>
@@ -3423,23 +3423,23 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>757</v>
+        <v>625</v>
       </c>
       <c r="D80">
         <v>180</v>
       </c>
       <c r="E80">
-        <v>847</v>
+        <v>721</v>
       </c>
       <c r="F80">
         <v>369</v>
       </c>
       <c r="G80">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H80">
         <f t="shared" si="19"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="20"/>
-        <v>757</v>
+        <v>625</v>
       </c>
       <c r="K80">
         <f t="shared" si="21"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="22"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M80">
         <f t="shared" si="23"/>
@@ -3464,23 +3464,23 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>891</v>
+        <v>757</v>
       </c>
       <c r="D81">
         <v>180</v>
       </c>
       <c r="E81">
-        <v>990</v>
+        <v>847</v>
       </c>
       <c r="F81">
         <v>369</v>
       </c>
       <c r="G81">
         <f t="shared" si="18"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H81">
         <f t="shared" si="19"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="20"/>
-        <v>891</v>
+        <v>757</v>
       </c>
       <c r="K81">
         <f t="shared" si="21"/>
@@ -3496,339 +3496,339 @@
       </c>
       <c r="L81">
         <f t="shared" si="22"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M81">
         <f t="shared" si="23"/>
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>891</v>
+      </c>
+      <c r="D82">
+        <v>180</v>
+      </c>
+      <c r="E82">
+        <v>990</v>
+      </c>
+      <c r="F82">
+        <v>369</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="18"/>
+        <v>99</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="20"/>
+        <v>891</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="22"/>
+        <v>99</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>37</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>33</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>52</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>24</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>267</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>80</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <f t="shared" si="18"/>
         <v>215</v>
       </c>
-      <c r="H83">
+      <c r="H84">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="J83">
+      <c r="J84">
         <f t="shared" si="20"/>
         <v>52</v>
       </c>
-      <c r="K83">
+      <c r="K84">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
-      <c r="L83">
+      <c r="L84">
         <f t="shared" si="22"/>
         <v>215</v>
       </c>
-      <c r="M83">
+      <c r="M84">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>43</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>634</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>408</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>811</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>459</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <f t="shared" si="18"/>
         <v>177</v>
       </c>
-      <c r="H84">
+      <c r="H85">
         <f t="shared" si="19"/>
         <v>51</v>
       </c>
-      <c r="J84">
+      <c r="J85">
         <f t="shared" si="20"/>
         <v>634</v>
       </c>
-      <c r="K84">
+      <c r="K85">
         <f t="shared" si="21"/>
         <v>408</v>
       </c>
-      <c r="L84">
+      <c r="L85">
         <f t="shared" si="22"/>
         <v>177</v>
       </c>
-      <c r="M84">
+      <c r="M85">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>44</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>45</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>54</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>34</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>279</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>90</v>
       </c>
-      <c r="G86">
-        <f t="shared" ref="G86:G125" si="30">E86-C86</f>
+      <c r="G87">
+        <f t="shared" ref="G87:G126" si="30">E87-C87</f>
         <v>225</v>
       </c>
-      <c r="H86">
-        <f t="shared" ref="H86:H125" si="31">F86-D86</f>
+      <c r="H87">
+        <f t="shared" ref="H87:H126" si="31">F87-D87</f>
         <v>56</v>
       </c>
-      <c r="J86">
-        <f t="shared" ref="J86:J125" si="32">C86</f>
+      <c r="J87">
+        <f t="shared" ref="J87:J126" si="32">C87</f>
         <v>54</v>
       </c>
-      <c r="K86">
-        <f t="shared" ref="K86:K125" si="33">D86</f>
+      <c r="K87">
+        <f t="shared" ref="K87:K126" si="33">D87</f>
         <v>34</v>
       </c>
-      <c r="L86">
-        <f t="shared" ref="L86:L125" si="34">G86</f>
+      <c r="L87">
+        <f t="shared" ref="L87:L126" si="34">G87</f>
         <v>225</v>
       </c>
-      <c r="M86">
-        <f t="shared" ref="M86:M125" si="35">H86</f>
+      <c r="M87">
+        <f t="shared" ref="M87:M126" si="35">H87</f>
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>46</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>633</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>31</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>808</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>84</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <f t="shared" si="30"/>
         <v>175</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <f t="shared" si="31"/>
         <v>53</v>
       </c>
-      <c r="J87">
+      <c r="J88">
         <f t="shared" si="32"/>
         <v>633</v>
       </c>
-      <c r="K87">
+      <c r="K88">
         <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="L87">
+      <c r="L88">
         <f t="shared" si="34"/>
         <v>175</v>
       </c>
-      <c r="M87">
+      <c r="M88">
         <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B88">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B89">
         <v>1</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>819</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>293</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>931</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>418</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <f t="shared" si="30"/>
         <v>112</v>
       </c>
-      <c r="H88">
+      <c r="H89">
         <f t="shared" si="31"/>
         <v>125</v>
       </c>
-      <c r="J88">
+      <c r="J89">
         <f t="shared" si="32"/>
         <v>819</v>
       </c>
-      <c r="K88">
+      <c r="K89">
         <f t="shared" si="33"/>
         <v>293</v>
       </c>
-      <c r="L88">
+      <c r="L89">
         <f t="shared" si="34"/>
         <v>112</v>
       </c>
-      <c r="M88">
+      <c r="M89">
         <f t="shared" si="35"/>
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B89">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B90">
         <v>2</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>931</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>126</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>1007</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>481</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <f t="shared" si="30"/>
         <v>76</v>
       </c>
-      <c r="H89">
+      <c r="H90">
         <f t="shared" si="31"/>
         <v>355</v>
       </c>
-      <c r="J89">
+      <c r="J90">
         <f t="shared" si="32"/>
         <v>931</v>
       </c>
-      <c r="K89">
+      <c r="K90">
         <f t="shared" si="33"/>
         <v>126</v>
       </c>
-      <c r="L89">
+      <c r="L90">
         <f t="shared" si="34"/>
         <v>76</v>
       </c>
-      <c r="M89">
+      <c r="M90">
         <f t="shared" si="35"/>
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>47</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>45</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>52</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>38</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>277</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>94</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <f t="shared" si="30"/>
         <v>225</v>
       </c>
-      <c r="H91">
+      <c r="H92">
         <f t="shared" si="31"/>
         <v>56</v>
       </c>
-      <c r="J91">
+      <c r="J92">
         <f t="shared" si="32"/>
         <v>52</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="33"/>
-        <v>38</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="34"/>
-        <v>225</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92">
-        <v>628</v>
-      </c>
-      <c r="D92">
-        <v>38</v>
-      </c>
-      <c r="E92">
-        <v>801</v>
-      </c>
-      <c r="F92">
-        <v>92</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="30"/>
-        <v>173</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="31"/>
-        <v>54</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="32"/>
-        <v>628</v>
       </c>
       <c r="K92">
         <f t="shared" si="33"/>
@@ -3836,1145 +3836,1186 @@
       </c>
       <c r="L92">
         <f t="shared" si="34"/>
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="M92">
         <f t="shared" si="35"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D93">
-        <v>509</v>
+        <v>38</v>
       </c>
       <c r="E93">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F93">
-        <v>562</v>
+        <v>92</v>
       </c>
       <c r="G93">
         <f t="shared" si="30"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H93">
         <f t="shared" si="31"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <f t="shared" si="32"/>
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K93">
         <f t="shared" si="33"/>
-        <v>509</v>
+        <v>38</v>
       </c>
       <c r="L93">
         <f t="shared" si="34"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M93">
         <f t="shared" si="35"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B94">
-        <v>1</v>
+      <c r="B94" t="s">
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>373</v>
+        <v>632</v>
       </c>
       <c r="D94">
-        <v>91</v>
+        <v>509</v>
       </c>
       <c r="E94">
-        <v>460</v>
+        <v>804</v>
       </c>
       <c r="F94">
-        <v>228</v>
+        <v>562</v>
       </c>
       <c r="G94">
         <f t="shared" si="30"/>
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="H94">
         <f t="shared" si="31"/>
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <f t="shared" si="32"/>
-        <v>373</v>
+        <v>632</v>
       </c>
       <c r="K94">
         <f t="shared" si="33"/>
-        <v>91</v>
+        <v>509</v>
       </c>
       <c r="L94">
         <f t="shared" si="34"/>
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="M94">
         <f t="shared" si="35"/>
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D95">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="E95">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F95">
-        <v>421</v>
+        <v>228</v>
       </c>
       <c r="G95">
         <f t="shared" si="30"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H95">
         <f t="shared" si="31"/>
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J95">
         <f t="shared" si="32"/>
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K95">
         <f t="shared" si="33"/>
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="L95">
         <f t="shared" si="34"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M95">
         <f t="shared" si="35"/>
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>921</v>
+        <v>375</v>
       </c>
       <c r="D96">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="E96">
-        <v>1011</v>
+        <v>456</v>
       </c>
       <c r="F96">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="G96">
         <f t="shared" si="30"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96">
         <f t="shared" si="31"/>
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="J96">
         <f t="shared" si="32"/>
-        <v>921</v>
+        <v>375</v>
       </c>
       <c r="K96">
         <f t="shared" si="33"/>
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="L96">
         <f t="shared" si="34"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M96">
         <f t="shared" si="35"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>921</v>
+      </c>
+      <c r="D97">
+        <v>189</v>
+      </c>
+      <c r="E97">
+        <v>1011</v>
+      </c>
+      <c r="F97">
+        <v>353</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="30"/>
+        <v>90</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="31"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="J97">
+        <f t="shared" si="32"/>
+        <v>921</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="33"/>
+        <v>189</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="34"/>
+        <v>90</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="35"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>50</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>45</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>54</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>44</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>280</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>99</v>
       </c>
-      <c r="G98">
+      <c r="G99">
         <f t="shared" si="30"/>
         <v>226</v>
       </c>
-      <c r="H98">
+      <c r="H99">
         <f t="shared" si="31"/>
         <v>55</v>
       </c>
-      <c r="J98">
+      <c r="J99">
         <f t="shared" si="32"/>
         <v>54</v>
       </c>
-      <c r="K98">
+      <c r="K99">
         <f t="shared" si="33"/>
         <v>44</v>
       </c>
-      <c r="L98">
+      <c r="L99">
         <f t="shared" si="34"/>
         <v>226</v>
       </c>
-      <c r="M98">
+      <c r="M99">
         <f t="shared" si="35"/>
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>51</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>628</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>38</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>804</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>92</v>
       </c>
-      <c r="G99">
+      <c r="G100">
         <f t="shared" si="30"/>
         <v>176</v>
       </c>
-      <c r="H99">
+      <c r="H100">
         <f t="shared" si="31"/>
         <v>54</v>
       </c>
-      <c r="J99">
+      <c r="J100">
         <f t="shared" si="32"/>
         <v>628</v>
       </c>
-      <c r="K99">
+      <c r="K100">
         <f t="shared" si="33"/>
         <v>38</v>
       </c>
-      <c r="L99">
+      <c r="L100">
         <f t="shared" si="34"/>
         <v>176</v>
       </c>
-      <c r="M99">
+      <c r="M100">
         <f t="shared" si="35"/>
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
         <v>52</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>634</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>511</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>806</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>564</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <f t="shared" si="30"/>
         <v>172</v>
       </c>
-      <c r="H100">
+      <c r="H101">
         <f t="shared" si="31"/>
         <v>53</v>
       </c>
-      <c r="J100">
+      <c r="J101">
         <f t="shared" si="32"/>
         <v>634</v>
       </c>
-      <c r="K100">
+      <c r="K101">
         <f t="shared" si="33"/>
         <v>511</v>
       </c>
-      <c r="L100">
+      <c r="L101">
         <f t="shared" si="34"/>
         <v>172</v>
       </c>
-      <c r="M100">
+      <c r="M101">
         <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B101">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B102">
         <v>1</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>628</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>275</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>723</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>394</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <f t="shared" si="31"/>
         <v>119</v>
       </c>
-      <c r="J101">
+      <c r="J102">
         <f t="shared" si="32"/>
         <v>628</v>
       </c>
-      <c r="K101">
+      <c r="K102">
         <f t="shared" si="33"/>
         <v>275</v>
       </c>
-      <c r="L101">
+      <c r="L102">
         <f t="shared" si="34"/>
         <v>95</v>
       </c>
-      <c r="M101">
+      <c r="M102">
         <f t="shared" si="35"/>
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B102">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B103">
         <v>2</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>835</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>276</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>940</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>407</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <f t="shared" si="30"/>
         <v>105</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <f t="shared" si="31"/>
         <v>131</v>
       </c>
-      <c r="J102">
+      <c r="J103">
         <f t="shared" si="32"/>
         <v>835</v>
       </c>
-      <c r="K102">
+      <c r="K103">
         <f t="shared" si="33"/>
         <v>276</v>
       </c>
-      <c r="L102">
+      <c r="L103">
         <f t="shared" si="34"/>
         <v>105</v>
       </c>
-      <c r="M102">
+      <c r="M103">
         <f t="shared" si="35"/>
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>53</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>45</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>52</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>39</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>279</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <v>96</v>
       </c>
-      <c r="G104">
+      <c r="G105">
         <f t="shared" si="30"/>
         <v>227</v>
       </c>
-      <c r="H104">
+      <c r="H105">
         <f t="shared" si="31"/>
         <v>57</v>
       </c>
-      <c r="J104">
+      <c r="J105">
         <f t="shared" si="32"/>
         <v>52</v>
       </c>
-      <c r="K104">
+      <c r="K105">
         <f t="shared" si="33"/>
         <v>39</v>
       </c>
-      <c r="L104">
+      <c r="L105">
         <f t="shared" si="34"/>
         <v>227</v>
       </c>
-      <c r="M104">
+      <c r="M105">
         <f t="shared" si="35"/>
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B105" t="s">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>633</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>508</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>806</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>562</v>
       </c>
-      <c r="G105">
+      <c r="G106">
         <f t="shared" si="30"/>
         <v>173</v>
       </c>
-      <c r="H105">
+      <c r="H106">
         <f t="shared" si="31"/>
         <v>54</v>
       </c>
-      <c r="J105">
+      <c r="J106">
         <f t="shared" si="32"/>
         <v>633</v>
       </c>
-      <c r="K105">
+      <c r="K106">
         <f t="shared" si="33"/>
         <v>508</v>
       </c>
-      <c r="L105">
+      <c r="L106">
         <f t="shared" si="34"/>
         <v>173</v>
       </c>
-      <c r="M105">
+      <c r="M106">
         <f t="shared" si="35"/>
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B106">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B107">
         <v>1</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>21</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>202</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>118</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <v>361</v>
       </c>
-      <c r="G106">
+      <c r="G107">
         <f t="shared" si="30"/>
         <v>97</v>
       </c>
-      <c r="H106">
+      <c r="H107">
         <f t="shared" si="31"/>
         <v>159</v>
       </c>
-      <c r="J106">
+      <c r="J107">
         <f t="shared" si="32"/>
         <v>21</v>
       </c>
-      <c r="K106">
+      <c r="K107">
         <f t="shared" si="33"/>
         <v>202</v>
       </c>
-      <c r="L106">
+      <c r="L107">
         <f t="shared" si="34"/>
         <v>97</v>
       </c>
-      <c r="M106">
+      <c r="M107">
         <f t="shared" si="35"/>
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B107">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B108">
         <v>2</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>352</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>276</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>455</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>403</v>
       </c>
-      <c r="G107">
+      <c r="G108">
         <f t="shared" si="30"/>
         <v>103</v>
       </c>
-      <c r="H107">
+      <c r="H108">
         <f t="shared" si="31"/>
         <v>127</v>
       </c>
-      <c r="J107">
+      <c r="J108">
         <f t="shared" si="32"/>
         <v>352</v>
       </c>
-      <c r="K107">
+      <c r="K108">
         <f t="shared" si="33"/>
         <v>276</v>
       </c>
-      <c r="L107">
+      <c r="L108">
         <f t="shared" si="34"/>
         <v>103</v>
       </c>
-      <c r="M107">
+      <c r="M108">
         <f t="shared" si="35"/>
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B108">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>451</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>65</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>550</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>201</v>
       </c>
-      <c r="G108">
+      <c r="G109">
         <f t="shared" si="30"/>
         <v>99</v>
       </c>
-      <c r="H108">
+      <c r="H109">
         <f t="shared" si="31"/>
         <v>136</v>
       </c>
-      <c r="J108">
+      <c r="J109">
         <f t="shared" si="32"/>
         <v>451</v>
       </c>
-      <c r="K108">
+      <c r="K109">
         <f t="shared" si="33"/>
         <v>65</v>
       </c>
-      <c r="L108">
+      <c r="L109">
         <f t="shared" si="34"/>
         <v>99</v>
       </c>
-      <c r="M108">
+      <c r="M109">
         <f t="shared" si="35"/>
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B109">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B110">
         <v>4</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>636</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>265</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>767</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>464</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <f t="shared" si="30"/>
         <v>131</v>
       </c>
-      <c r="H109">
+      <c r="H110">
         <f t="shared" si="31"/>
         <v>199</v>
       </c>
-      <c r="J109">
+      <c r="J110">
         <f t="shared" si="32"/>
         <v>636</v>
       </c>
-      <c r="K109">
+      <c r="K110">
         <f t="shared" si="33"/>
         <v>265</v>
       </c>
-      <c r="L109">
+      <c r="L110">
         <f t="shared" si="34"/>
         <v>131</v>
       </c>
-      <c r="M109">
+      <c r="M110">
         <f t="shared" si="35"/>
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>55</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>45</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>11</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>23</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>252</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <v>81</v>
       </c>
-      <c r="G111">
+      <c r="G112">
         <f t="shared" si="30"/>
         <v>241</v>
       </c>
-      <c r="H111">
+      <c r="H112">
         <f t="shared" si="31"/>
         <v>58</v>
       </c>
-      <c r="J111">
+      <c r="J112">
         <f t="shared" si="32"/>
         <v>11</v>
       </c>
-      <c r="K111">
+      <c r="K112">
         <f t="shared" si="33"/>
         <v>23</v>
       </c>
-      <c r="L111">
+      <c r="L112">
         <f t="shared" si="34"/>
         <v>241</v>
       </c>
-      <c r="M111">
+      <c r="M112">
         <f t="shared" si="35"/>
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B112">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B113">
         <v>1</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>359</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>103</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>478</v>
       </c>
-      <c r="F112">
+      <c r="F113">
         <v>256</v>
       </c>
-      <c r="G112">
+      <c r="G113">
         <f t="shared" si="30"/>
         <v>119</v>
       </c>
-      <c r="H112">
+      <c r="H113">
         <f t="shared" si="31"/>
         <v>153</v>
       </c>
-      <c r="J112">
+      <c r="J113">
         <f t="shared" si="32"/>
         <v>359</v>
       </c>
-      <c r="K112">
+      <c r="K113">
         <f t="shared" si="33"/>
         <v>103</v>
       </c>
-      <c r="L112">
+      <c r="L113">
         <f t="shared" si="34"/>
         <v>119</v>
       </c>
-      <c r="M112">
+      <c r="M113">
         <f t="shared" si="35"/>
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
         <v>56</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>549</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>47</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>733</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>105</v>
       </c>
-      <c r="G113">
+      <c r="G114">
         <f t="shared" si="30"/>
         <v>184</v>
       </c>
-      <c r="H113">
+      <c r="H114">
         <f t="shared" si="31"/>
         <v>58</v>
       </c>
-      <c r="J113">
+      <c r="J114">
         <f t="shared" si="32"/>
         <v>549</v>
       </c>
-      <c r="K113">
+      <c r="K114">
         <f t="shared" si="33"/>
         <v>47</v>
       </c>
-      <c r="L113">
+      <c r="L114">
         <f t="shared" si="34"/>
         <v>184</v>
       </c>
-      <c r="M113">
+      <c r="M114">
         <f t="shared" si="35"/>
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>57</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>45</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>29</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>29</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>284</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <v>95</v>
       </c>
-      <c r="G115">
+      <c r="G116">
         <f t="shared" si="30"/>
         <v>255</v>
       </c>
-      <c r="H115">
+      <c r="H116">
         <f t="shared" si="31"/>
         <v>66</v>
       </c>
-      <c r="J115">
+      <c r="J116">
         <f t="shared" si="32"/>
         <v>29</v>
       </c>
-      <c r="K115">
+      <c r="K116">
         <f t="shared" si="33"/>
         <v>29</v>
       </c>
-      <c r="L115">
+      <c r="L116">
         <f t="shared" si="34"/>
         <v>255</v>
       </c>
-      <c r="M115">
+      <c r="M116">
         <f t="shared" si="35"/>
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
         <v>58</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>641</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <v>493</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>838</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <v>558</v>
       </c>
-      <c r="G116">
+      <c r="G117">
         <f t="shared" si="30"/>
         <v>197</v>
       </c>
-      <c r="H116">
+      <c r="H117">
         <f t="shared" si="31"/>
         <v>65</v>
       </c>
-      <c r="J116">
+      <c r="J117">
         <f t="shared" si="32"/>
         <v>641</v>
       </c>
-      <c r="K116">
+      <c r="K117">
         <f t="shared" si="33"/>
         <v>493</v>
       </c>
-      <c r="L116">
+      <c r="L117">
         <f t="shared" si="34"/>
         <v>197</v>
       </c>
-      <c r="M116">
+      <c r="M117">
         <f t="shared" si="35"/>
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B117">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B118">
         <v>1</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>596</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>256</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <v>763</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <v>410</v>
       </c>
-      <c r="G117">
+      <c r="G118">
         <f t="shared" si="30"/>
         <v>167</v>
       </c>
-      <c r="H117">
+      <c r="H118">
         <f t="shared" si="31"/>
         <v>154</v>
       </c>
-      <c r="J117">
+      <c r="J118">
         <f t="shared" si="32"/>
         <v>596</v>
       </c>
-      <c r="K117">
+      <c r="K118">
         <f t="shared" si="33"/>
         <v>256</v>
       </c>
-      <c r="L117">
+      <c r="L118">
         <f t="shared" si="34"/>
         <v>167</v>
       </c>
-      <c r="M117">
+      <c r="M118">
         <f t="shared" si="35"/>
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>59</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>45</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>10</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>20</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <v>274</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <v>88</v>
       </c>
-      <c r="G119">
+      <c r="G120">
         <f t="shared" si="30"/>
         <v>264</v>
       </c>
-      <c r="H119">
+      <c r="H120">
         <f t="shared" si="31"/>
         <v>68</v>
       </c>
-      <c r="J119">
+      <c r="J120">
         <f t="shared" si="32"/>
         <v>10</v>
       </c>
-      <c r="K119">
+      <c r="K120">
         <f t="shared" si="33"/>
         <v>20</v>
       </c>
-      <c r="L119">
+      <c r="L120">
         <f t="shared" si="34"/>
         <v>264</v>
       </c>
-      <c r="M119">
+      <c r="M120">
         <f t="shared" si="35"/>
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
         <v>60</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>518</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>31</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <v>749</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <v>96</v>
       </c>
-      <c r="G120">
+      <c r="G121">
         <f t="shared" si="30"/>
         <v>231</v>
       </c>
-      <c r="H120">
+      <c r="H121">
         <f t="shared" si="31"/>
         <v>65</v>
       </c>
-      <c r="J120">
+      <c r="J121">
         <f t="shared" si="32"/>
         <v>518</v>
       </c>
-      <c r="K120">
+      <c r="K121">
         <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="L120">
+      <c r="L121">
         <f t="shared" si="34"/>
         <v>231</v>
       </c>
-      <c r="M120">
+      <c r="M121">
         <f t="shared" si="35"/>
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B121">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B122">
         <v>1</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>363</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>397</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>710</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>590</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <f t="shared" si="30"/>
         <v>347</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <f t="shared" si="31"/>
         <v>193</v>
       </c>
-      <c r="J121">
+      <c r="J122">
         <f t="shared" si="32"/>
         <v>363</v>
       </c>
-      <c r="K121">
+      <c r="K122">
         <f t="shared" si="33"/>
         <v>397</v>
       </c>
-      <c r="L121">
+      <c r="L122">
         <f t="shared" si="34"/>
         <v>347</v>
       </c>
-      <c r="M121">
+      <c r="M122">
         <f t="shared" si="35"/>
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>63</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>62</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>3</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>31</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>261</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>97</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <f t="shared" si="30"/>
         <v>258</v>
       </c>
-      <c r="H123">
+      <c r="H124">
         <f t="shared" si="31"/>
         <v>66</v>
       </c>
-      <c r="J123">
+      <c r="J124">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="K123">
+      <c r="K124">
         <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="L123">
+      <c r="L124">
         <f t="shared" si="34"/>
         <v>258</v>
       </c>
-      <c r="M123">
+      <c r="M124">
         <f t="shared" si="35"/>
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
         <v>61</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <v>626</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <v>521</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>852</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>580</v>
       </c>
-      <c r="G124">
+      <c r="G125">
         <f t="shared" si="30"/>
         <v>226</v>
       </c>
-      <c r="H124">
+      <c r="H125">
         <f t="shared" si="31"/>
         <v>59</v>
       </c>
-      <c r="J124">
+      <c r="J125">
         <f t="shared" si="32"/>
         <v>626</v>
       </c>
-      <c r="K124">
+      <c r="K125">
         <f t="shared" si="33"/>
         <v>521</v>
       </c>
-      <c r="L124">
+      <c r="L125">
         <f t="shared" si="34"/>
         <v>226</v>
       </c>
-      <c r="M124">
+      <c r="M125">
         <f t="shared" si="35"/>
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B125">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B126">
         <v>1</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>288</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>381</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>490</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <v>567</v>
       </c>
-      <c r="G125">
+      <c r="G126">
         <f t="shared" si="30"/>
         <v>202</v>
       </c>
-      <c r="H125">
+      <c r="H126">
         <f t="shared" si="31"/>
         <v>186</v>
       </c>
-      <c r="J125">
+      <c r="J126">
         <f t="shared" si="32"/>
         <v>288</v>
       </c>
-      <c r="K125">
+      <c r="K126">
         <f t="shared" si="33"/>
         <v>381</v>
       </c>
-      <c r="L125">
+      <c r="L126">
         <f t="shared" si="34"/>
         <v>202</v>
       </c>
-      <c r="M125">
+      <c r="M126">
         <f t="shared" si="35"/>
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>

--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho01\OneDrive\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1E770-B3DB-404B-8057-6EA1411E30CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1805,13 +1806,13 @@
         <v>529</v>
       </c>
       <c r="D35">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E35">
         <v>634</v>
       </c>
       <c r="F35">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G35">
         <f t="shared" si="12"/>
@@ -1819,15 +1820,14 @@
       </c>
       <c r="H35">
         <f t="shared" si="13"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <f t="shared" si="14"/>
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K35">
         <f t="shared" si="15"/>
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L35">
         <f t="shared" si="16"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="17"/>
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">

--- a/api-server/routes/linebot_mapImg/action座標位置.xlsx
+++ b/api-server/routes/linebot_mapImg/action座標位置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho01\OneDrive\Documents\GitHub\2018.perform\api-server\routes\linebot_mapImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1E770-B3DB-404B-8057-6EA1411E30CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="6_{3BEA3175-012C-44C0-8CA3-24861CCC041A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{6C0F69C6-9AE0-48BB-97D1-D93E3C811F25}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:M35"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1846,21 +1846,21 @@
         <v>526</v>
       </c>
       <c r="D36">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="E36">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F36">
-        <v>507</v>
+        <v>603</v>
       </c>
       <c r="G36">
         <f t="shared" si="12"/>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H36">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J36">
         <f t="shared" si="14"/>
@@ -1868,15 +1868,15 @@
       </c>
       <c r="K36">
         <f t="shared" si="15"/>
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="L36">
         <f t="shared" si="16"/>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M36">
         <f t="shared" si="17"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
